--- a/assets/supplementary_materials/DATA_S4.xlsx
+++ b/assets/supplementary_materials/DATA_S4.xlsx
@@ -60,16 +60,22 @@
     <t>contig_edge</t>
   </si>
   <si>
+    <t>subregion_number</t>
+  </si>
+  <si>
     <t>label</t>
   </si>
   <si>
+    <t>tool</t>
+  </si>
+  <si>
     <t>a_stool</t>
   </si>
   <si>
-    <t>subregion_number</t>
-  </si>
-  <si>
-    <t>tool</t>
+    <t>candidate_cluster_numbers</t>
+  </si>
+  <si>
+    <t>product</t>
   </si>
   <si>
     <t>region_number</t>
@@ -78,60 +84,54 @@
     <t>rules</t>
   </si>
   <si>
-    <t>product</t>
-  </si>
-  <si>
     <t>subregion_numbers</t>
   </si>
   <si>
-    <t>candidate_cluster_numbers</t>
-  </si>
-  <si>
     <t>locus_tag.x</t>
   </si>
   <si>
+    <t>gene_functions</t>
+  </si>
+  <si>
+    <t>transl_table</t>
+  </si>
+  <si>
+    <t>inference</t>
+  </si>
+  <si>
     <t>protein_id</t>
   </si>
   <si>
-    <t>transl_table</t>
-  </si>
-  <si>
     <t>gene_kind</t>
   </si>
   <si>
-    <t>gene_functions</t>
-  </si>
-  <si>
-    <t>inference</t>
-  </si>
-  <si>
     <t>core_location</t>
   </si>
   <si>
+    <t>detection_rule</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>cutoff</t>
   </si>
   <si>
-    <t>detection_rule</t>
-  </si>
-  <si>
     <t>protocluster_number</t>
   </si>
   <si>
-    <t>category</t>
-  </si>
-  <si>
     <t>neighbourhood</t>
   </si>
   <si>
+    <t>candidate_cluster_number</t>
+  </si>
+  <si>
+    <t>detection_rules</t>
+  </si>
+  <si>
     <t>protoclusters</t>
   </si>
   <si>
-    <t>detection_rules</t>
-  </si>
-  <si>
-    <t>candidate_cluster_number</t>
-  </si>
-  <si>
     <t>kind</t>
   </si>
   <si>
@@ -1038,6 +1038,237 @@
     <t>PKJGIIBK_01460</t>
   </si>
   <si>
+    <t>other (smcogs) SMCOG1164:transposaseIS3/IS911 family protein (Score: 95.6%3b E-value: 2.3e-29)</t>
+  </si>
+  <si>
+    <t>other (smcogs) SMCOG1026:transposase(Score: 306.6%3b E-value: 2.1e-93)</t>
+  </si>
+  <si>
+    <t>biosynthetic-additional (smcogs)SMCOG1081:cysteine synthase (Score: 380.8%3b E-value:6.6e-116)</t>
+  </si>
+  <si>
+    <t>biosynthetic-additional (smcogs)SMCOG1158:ornithine cyclodeaminase (Score: 327.3%3b E-value:1.3e-99)</t>
+  </si>
+  <si>
+    <t>biosynthetic (rule-based-clusters)siderophore: IucA_IucC</t>
+  </si>
+  <si>
+    <t>transport (smcogs) SMCOG1184:majorfacilitator transporter (Score: 78.5%3b E-value: 6.5e-24)</t>
+  </si>
+  <si>
+    <t>biosynthetic-additional(rule-based-clusters) Orn_DAP_Arg_deC,biosynthetic-additional(rule-based-clusters) Orn_Arg_deC_N,biosynthetic-additional (smcogs)SMCOG1264:diaminopimelate decarboxylase (Score: 318.9%3bE-value: 5.5e-97)</t>
+  </si>
+  <si>
+    <t>biosynthetic-additional (smcogs)SMCOG1089:methyltransferase (Score: 99.2%3b E-value:4.3e-30)</t>
+  </si>
+  <si>
+    <t>biosynthetic-additional(rule-based-clusters) Orn_DAP_Arg_deC,biosynthetic-additional(rule-based-clusters) Orn_Arg_deC_N,biosynthetic-additional (smcogs)SMCOG1264:diaminopimelate decarboxylase (Score: 333.4%3bE-value: 2.2e-101)</t>
+  </si>
+  <si>
+    <t>transport (smcogs) SMCOG1106:majorfacilitator transporter (Score: 90.6%3b E-value: 1.4e-27)</t>
+  </si>
+  <si>
+    <t>biosynthetic-additional (smcogs)SMCOG1158:ornithine cyclodeaminase (Score: 329.2%3b E-value:3.4e-100)</t>
+  </si>
+  <si>
+    <t>biosynthetic-additional (smcogs)SMCOG1081:cysteine synthase (Score: 392%3b E-value:2.6e-119)</t>
+  </si>
+  <si>
+    <t>biosynthetic-additional (smcogs)SMCOG1191:acyl-CoA dehydrogenase type 2 (Score: 317.6%3bE-value: 1.6e-96)</t>
+  </si>
+  <si>
+    <t>regulatory (smcogs) SMCOG1215:TetR familytranscriptional regulator (Score: 139.4%3b E-value: 2.7e-42)</t>
+  </si>
+  <si>
+    <t>biosynthetic-additional(rule-based-clusters) Orn_DAP_Arg_deC,biosynthetic-additional(rule-based-clusters) Orn_Arg_deC_N,biosynthetic-additional (smcogs)SMCOG1264:diaminopimelate decarboxylase (Score: 319.7%3bE-value: 3.3e-97)</t>
+  </si>
+  <si>
+    <t>transport (smcogs) SMCOG1184:majorfacilitator transporter (Score: 80%3b E-value: 2.3e-24)</t>
+  </si>
+  <si>
+    <t>biosynthetic-additional (smcogs)SMCOG1158:ornithine cyclodeaminase (Score: 331.7%3b E-value:5.7e-101)</t>
+  </si>
+  <si>
+    <t>biosynthetic-additional (smcogs)SMCOG1081:cysteine synthase (Score: 384.4%3b E-value:5.5e-117)</t>
+  </si>
+  <si>
+    <t>biosynthetic-additional (smcogs)SMCOG1039:aldo/keto reductase family oxidoreductase (Score:310.4%3b E-value: 1.9e-94)</t>
+  </si>
+  <si>
+    <t>biosynthetic-additional (smcogs)SMCOG1081:cysteine synthase (Score: 392.4%3b E-value:2e-119)</t>
+  </si>
+  <si>
+    <t>biosynthetic-additional (smcogs)SMCOG1158:ornithine cyclodeaminase (Score: 326.1%3b E-value:2.9e-99)</t>
+  </si>
+  <si>
+    <t>transport (smcogs) SMCOG1106:majorfacilitator transporter (Score: 72.6%3b E-value: 3.9e-22)</t>
+  </si>
+  <si>
+    <t>biosynthetic-additional(rule-based-clusters) Orn_DAP_Arg_deC,biosynthetic-additional(rule-based-clusters) Orn_Arg_deC_N,biosynthetic-additional (smcogs)SMCOG1264:diaminopimelate decarboxylase (Score: 328.2%3bE-value: 8.7e-100)</t>
+  </si>
+  <si>
+    <t>other (smcogs) SMCOG1173:WD-40repeat-containing protein (Score: 54.9%3b E-value: 1.1e-16)</t>
+  </si>
+  <si>
+    <t>biosynthetic-additional (smcogs)SMCOG1081:cysteine synthase (Score: 381.3%3b E-value:4.8e-116)</t>
+  </si>
+  <si>
+    <t>biosynthetic-additional (smcogs)SMCOG1158:ornithine cyclodeaminase (Score: 326.6%3b E-value:2.1e-99)</t>
+  </si>
+  <si>
+    <t>transport (smcogs) SMCOG1184:majorfacilitator transporter (Score: 80.3%3b E-value: 1.8e-24)</t>
+  </si>
+  <si>
+    <t>biosynthetic-additional(rule-based-clusters) Orn_DAP_Arg_deC,biosynthetic-additional(rule-based-clusters) Orn_Arg_deC_N,biosynthetic-additional (smcogs)SMCOG1264:diaminopimelate decarboxylase (Score: 318.5%3bE-value: 7.7e-97)</t>
+  </si>
+  <si>
+    <t>other (smcogs) SMCOG1192:transposase(Score: 85.2%3b E-value: 7.9e-26)</t>
+  </si>
+  <si>
+    <t>other (smcogs) SMCOG1208:pirindomain-containing protein (Score: 279.3%3b E-value: 5.2e-85)</t>
+  </si>
+  <si>
+    <t>biosynthetic-additional (smcogs)SMCOG1081:cysteine synthase (Score: 382.9%3b E-value:1.6e-116)</t>
+  </si>
+  <si>
+    <t>biosynthetic-additional (smcogs)SMCOG1158:ornithine cyclodeaminase (Score: 319.3%3b E-value:3.5e-97)</t>
+  </si>
+  <si>
+    <t>transport (smcogs) SMCOG1184:majorfacilitator transporter (Score: 72.1%3b E-value: 6e-22)</t>
+  </si>
+  <si>
+    <t>biosynthetic-additional(rule-based-clusters) Orn_DAP_Arg_deC,biosynthetic-additional(rule-based-clusters) Orn_Arg_deC_N,biosynthetic-additional (smcogs)SMCOG1264:diaminopimelate decarboxylase (Score: 329.8%3bE-value: 2.7e-100)</t>
+  </si>
+  <si>
+    <t>biosynthetic-additional (smcogs)SMCOG1105:amidase (Score: 393.5%3b E-value: 2.3e-119)</t>
+  </si>
+  <si>
+    <t>biosynthetic-additional (smcogs)SMCOG1081:cysteine synthase (Score: 107.6%3b E-value:9.1e-33)</t>
+  </si>
+  <si>
+    <t>transport (smcogs) SMCOG1011:transportsystem permease protein (Score: 254.8%3b E-value: 1.7e-77)</t>
+  </si>
+  <si>
+    <t>transport (smcogs) SMCOG1011:transportsystem permease protein (Score: 288.7%3b E-value: 8.4e-88)</t>
+  </si>
+  <si>
+    <t>transport (smcogs) SMCOG1033:iron compoundABC transporter, periplasmic (Score: 253.2%3b E-value:4.7e-77)</t>
+  </si>
+  <si>
+    <t>biosynthetic-additional (smcogs)SMCOG1081:cysteine synthase (Score: 374.4%3b E-value:6.1e-114)</t>
+  </si>
+  <si>
+    <t>biosynthetic-additional (smcogs)SMCOG1158:ornithine cyclodeaminase (Score: 323.6%3b E-value:1.7e-98)</t>
+  </si>
+  <si>
+    <t>transport (smcogs) SMCOG1020:majorfacilitator transporter (Score: 87.5%3b E-value: 1.5e-26)</t>
+  </si>
+  <si>
+    <t>biosynthetic-additional(rule-based-clusters) Orn_DAP_Arg_deC,biosynthetic-additional(rule-based-clusters) Orn_Arg_deC_N,biosynthetic-additional (smcogs)SMCOG1264:diaminopimelate decarboxylase (Score: 308.8%3bE-value: 6.4e-94)</t>
+  </si>
+  <si>
+    <t>transport (smcogs) SMCOG1184:majorfacilitator transporter (Score: 78.8%3b E-value: 5.4e-24)</t>
+  </si>
+  <si>
+    <t>ab initio prediction:Prodigal:002006</t>
+  </si>
+  <si>
+    <t>ab initio prediction:Prodigal:002006,similar to AA sequence:UniProtKB:P9WKH5</t>
+  </si>
+  <si>
+    <t>ab initio prediction:Prodigal:002006,similar to AA sequence:ISfinder:ISPmi1</t>
+  </si>
+  <si>
+    <t>ab initio prediction:Prodigal:002006,similar to AA sequence:UniProtKB:A6QDA0</t>
+  </si>
+  <si>
+    <t>ab initio prediction:Prodigal:002006,similar to AA sequence:UniProtKB:Q2G1N2</t>
+  </si>
+  <si>
+    <t>ab initio prediction:Prodigal:002006,similar to AA sequence:UniProtKB:Q2G1N1</t>
+  </si>
+  <si>
+    <t>ab initio prediction:Prodigal:002006,similar to AA sequence:UniProtKB:Q2G1N0</t>
+  </si>
+  <si>
+    <t>ab initio prediction:Prodigal:002006,similar to AA sequence:UniProtKB:Q2G1M9</t>
+  </si>
+  <si>
+    <t>ab initio prediction:Prodigal:002006,similar to AA sequence:UniProtKB:Q2G1M8</t>
+  </si>
+  <si>
+    <t>ab initio prediction:Prodigal:002006,similar to AA sequence:UniProtKB:P23522</t>
+  </si>
+  <si>
+    <t>ab initio prediction:Prodigal:002006,similar to AA sequence:UniProtKB:Q2G1M6</t>
+  </si>
+  <si>
+    <t>ab initio prediction:Prodigal:002006,similar to AA sequence:UniProtKB:T2KM26</t>
+  </si>
+  <si>
+    <t>ab initio prediction:Prodigal:002006,protein motif:HAMAP:MF_01813</t>
+  </si>
+  <si>
+    <t>ab initio prediction:Prodigal:002006,similar to AA sequence:UniProtKB:D9TQ02</t>
+  </si>
+  <si>
+    <t>ab initio prediction:Prodigal:002006,similar to AA sequence:UniProtKB:Q6Q272</t>
+  </si>
+  <si>
+    <t>ab initio prediction:Prodigal:002006,protein motif:HAMAP:MF_00768</t>
+  </si>
+  <si>
+    <t>ab initio prediction:Prodigal:002006,similar to AA sequence:ISfinder:ISMac10</t>
+  </si>
+  <si>
+    <t>ab initio prediction:Prodigal:002006,similar to AA sequence:UniProtKB:P46336</t>
+  </si>
+  <si>
+    <t>ab initio prediction:Prodigal:002006,similar to AA sequence:UniProtKB:Q89YS5</t>
+  </si>
+  <si>
+    <t>ab initio prediction:Prodigal:002006,similar to AA sequence:UniProtKB:K9NBS6</t>
+  </si>
+  <si>
+    <t>ab initio prediction:Prodigal:002006,similar to AA sequence:UniProtKB:A4F2N8</t>
+  </si>
+  <si>
+    <t>ab initio prediction:Prodigal:2.60,similar to AA sequence:RefSeq:YP_006708863.1</t>
+  </si>
+  <si>
+    <t>ab initio prediction:Prodigal:2.60,similar to AA sequence:RefSeq:YP_005740864.1</t>
+  </si>
+  <si>
+    <t>ab initio prediction:Prodigal:2.60,similar to AA sequence:RefSeq:YP_005740865.1</t>
+  </si>
+  <si>
+    <t>ab initio prediction:Prodigal:2.60,similar to AA sequence:RefSeq:YP_005740866.1</t>
+  </si>
+  <si>
+    <t>ab initio prediction:Prodigal:2.60,similar to AA sequence:RefSeq:YP_005740867.1</t>
+  </si>
+  <si>
+    <t>ab initio prediction:Prodigal:2.60,similar to AA sequence:RefSeq:YP_005740868.1</t>
+  </si>
+  <si>
+    <t>ab initio prediction:Prodigal:2.60,similar to AA sequence:RefSeq:YP_005740869.1</t>
+  </si>
+  <si>
+    <t>ab initio prediction:Prodigal:2.60,similar to AA sequence:RefSeq:YP_005740870.1</t>
+  </si>
+  <si>
+    <t>ab initio prediction:Prodigal:2.60,similar to AA sequence:RefSeq:YP_006194281.1</t>
+  </si>
+  <si>
+    <t>ab initio prediction:Prodigal:2.60,similar to AA sequence:RefSeq:YP_005740872.1</t>
+  </si>
+  <si>
+    <t>ab initio prediction:Prodigal:2.60,similar to AA sequence:RefSeq:YP_005740873.1</t>
+  </si>
+  <si>
+    <t>ab initio prediction:Prodigal:2.60,similar to AA sequence:RefSeq:YP_005740874.1</t>
+  </si>
+  <si>
     <t>SQF72442.1</t>
   </si>
   <si>
@@ -1087,237 +1318,6 @@
   </si>
   <si>
     <t>regulatory</t>
-  </si>
-  <si>
-    <t>other (smcogs) SMCOG1164:transposaseIS3/IS911 family protein (Score: 95.6%3b E-value: 2.3e-29)</t>
-  </si>
-  <si>
-    <t>other (smcogs) SMCOG1026:transposase(Score: 306.6%3b E-value: 2.1e-93)</t>
-  </si>
-  <si>
-    <t>biosynthetic-additional (smcogs)SMCOG1081:cysteine synthase (Score: 380.8%3b E-value:6.6e-116)</t>
-  </si>
-  <si>
-    <t>biosynthetic-additional (smcogs)SMCOG1158:ornithine cyclodeaminase (Score: 327.3%3b E-value:1.3e-99)</t>
-  </si>
-  <si>
-    <t>biosynthetic (rule-based-clusters)siderophore: IucA_IucC</t>
-  </si>
-  <si>
-    <t>transport (smcogs) SMCOG1184:majorfacilitator transporter (Score: 78.5%3b E-value: 6.5e-24)</t>
-  </si>
-  <si>
-    <t>biosynthetic-additional(rule-based-clusters) Orn_DAP_Arg_deC,biosynthetic-additional(rule-based-clusters) Orn_Arg_deC_N,biosynthetic-additional (smcogs)SMCOG1264:diaminopimelate decarboxylase (Score: 318.9%3bE-value: 5.5e-97)</t>
-  </si>
-  <si>
-    <t>biosynthetic-additional (smcogs)SMCOG1089:methyltransferase (Score: 99.2%3b E-value:4.3e-30)</t>
-  </si>
-  <si>
-    <t>biosynthetic-additional(rule-based-clusters) Orn_DAP_Arg_deC,biosynthetic-additional(rule-based-clusters) Orn_Arg_deC_N,biosynthetic-additional (smcogs)SMCOG1264:diaminopimelate decarboxylase (Score: 333.4%3bE-value: 2.2e-101)</t>
-  </si>
-  <si>
-    <t>transport (smcogs) SMCOG1106:majorfacilitator transporter (Score: 90.6%3b E-value: 1.4e-27)</t>
-  </si>
-  <si>
-    <t>biosynthetic-additional (smcogs)SMCOG1158:ornithine cyclodeaminase (Score: 329.2%3b E-value:3.4e-100)</t>
-  </si>
-  <si>
-    <t>biosynthetic-additional (smcogs)SMCOG1081:cysteine synthase (Score: 392%3b E-value:2.6e-119)</t>
-  </si>
-  <si>
-    <t>biosynthetic-additional (smcogs)SMCOG1191:acyl-CoA dehydrogenase type 2 (Score: 317.6%3bE-value: 1.6e-96)</t>
-  </si>
-  <si>
-    <t>regulatory (smcogs) SMCOG1215:TetR familytranscriptional regulator (Score: 139.4%3b E-value: 2.7e-42)</t>
-  </si>
-  <si>
-    <t>biosynthetic-additional(rule-based-clusters) Orn_DAP_Arg_deC,biosynthetic-additional(rule-based-clusters) Orn_Arg_deC_N,biosynthetic-additional (smcogs)SMCOG1264:diaminopimelate decarboxylase (Score: 319.7%3bE-value: 3.3e-97)</t>
-  </si>
-  <si>
-    <t>transport (smcogs) SMCOG1184:majorfacilitator transporter (Score: 80%3b E-value: 2.3e-24)</t>
-  </si>
-  <si>
-    <t>biosynthetic-additional (smcogs)SMCOG1158:ornithine cyclodeaminase (Score: 331.7%3b E-value:5.7e-101)</t>
-  </si>
-  <si>
-    <t>biosynthetic-additional (smcogs)SMCOG1081:cysteine synthase (Score: 384.4%3b E-value:5.5e-117)</t>
-  </si>
-  <si>
-    <t>biosynthetic-additional (smcogs)SMCOG1039:aldo/keto reductase family oxidoreductase (Score:310.4%3b E-value: 1.9e-94)</t>
-  </si>
-  <si>
-    <t>biosynthetic-additional (smcogs)SMCOG1081:cysteine synthase (Score: 392.4%3b E-value:2e-119)</t>
-  </si>
-  <si>
-    <t>biosynthetic-additional (smcogs)SMCOG1158:ornithine cyclodeaminase (Score: 326.1%3b E-value:2.9e-99)</t>
-  </si>
-  <si>
-    <t>transport (smcogs) SMCOG1106:majorfacilitator transporter (Score: 72.6%3b E-value: 3.9e-22)</t>
-  </si>
-  <si>
-    <t>biosynthetic-additional(rule-based-clusters) Orn_DAP_Arg_deC,biosynthetic-additional(rule-based-clusters) Orn_Arg_deC_N,biosynthetic-additional (smcogs)SMCOG1264:diaminopimelate decarboxylase (Score: 328.2%3bE-value: 8.7e-100)</t>
-  </si>
-  <si>
-    <t>other (smcogs) SMCOG1173:WD-40repeat-containing protein (Score: 54.9%3b E-value: 1.1e-16)</t>
-  </si>
-  <si>
-    <t>biosynthetic-additional (smcogs)SMCOG1081:cysteine synthase (Score: 381.3%3b E-value:4.8e-116)</t>
-  </si>
-  <si>
-    <t>biosynthetic-additional (smcogs)SMCOG1158:ornithine cyclodeaminase (Score: 326.6%3b E-value:2.1e-99)</t>
-  </si>
-  <si>
-    <t>transport (smcogs) SMCOG1184:majorfacilitator transporter (Score: 80.3%3b E-value: 1.8e-24)</t>
-  </si>
-  <si>
-    <t>biosynthetic-additional(rule-based-clusters) Orn_DAP_Arg_deC,biosynthetic-additional(rule-based-clusters) Orn_Arg_deC_N,biosynthetic-additional (smcogs)SMCOG1264:diaminopimelate decarboxylase (Score: 318.5%3bE-value: 7.7e-97)</t>
-  </si>
-  <si>
-    <t>other (smcogs) SMCOG1192:transposase(Score: 85.2%3b E-value: 7.9e-26)</t>
-  </si>
-  <si>
-    <t>other (smcogs) SMCOG1208:pirindomain-containing protein (Score: 279.3%3b E-value: 5.2e-85)</t>
-  </si>
-  <si>
-    <t>biosynthetic-additional (smcogs)SMCOG1081:cysteine synthase (Score: 382.9%3b E-value:1.6e-116)</t>
-  </si>
-  <si>
-    <t>biosynthetic-additional (smcogs)SMCOG1158:ornithine cyclodeaminase (Score: 319.3%3b E-value:3.5e-97)</t>
-  </si>
-  <si>
-    <t>transport (smcogs) SMCOG1184:majorfacilitator transporter (Score: 72.1%3b E-value: 6e-22)</t>
-  </si>
-  <si>
-    <t>biosynthetic-additional(rule-based-clusters) Orn_DAP_Arg_deC,biosynthetic-additional(rule-based-clusters) Orn_Arg_deC_N,biosynthetic-additional (smcogs)SMCOG1264:diaminopimelate decarboxylase (Score: 329.8%3bE-value: 2.7e-100)</t>
-  </si>
-  <si>
-    <t>biosynthetic-additional (smcogs)SMCOG1105:amidase (Score: 393.5%3b E-value: 2.3e-119)</t>
-  </si>
-  <si>
-    <t>biosynthetic-additional (smcogs)SMCOG1081:cysteine synthase (Score: 107.6%3b E-value:9.1e-33)</t>
-  </si>
-  <si>
-    <t>transport (smcogs) SMCOG1011:transportsystem permease protein (Score: 254.8%3b E-value: 1.7e-77)</t>
-  </si>
-  <si>
-    <t>transport (smcogs) SMCOG1011:transportsystem permease protein (Score: 288.7%3b E-value: 8.4e-88)</t>
-  </si>
-  <si>
-    <t>transport (smcogs) SMCOG1033:iron compoundABC transporter, periplasmic (Score: 253.2%3b E-value:4.7e-77)</t>
-  </si>
-  <si>
-    <t>biosynthetic-additional (smcogs)SMCOG1081:cysteine synthase (Score: 374.4%3b E-value:6.1e-114)</t>
-  </si>
-  <si>
-    <t>biosynthetic-additional (smcogs)SMCOG1158:ornithine cyclodeaminase (Score: 323.6%3b E-value:1.7e-98)</t>
-  </si>
-  <si>
-    <t>transport (smcogs) SMCOG1020:majorfacilitator transporter (Score: 87.5%3b E-value: 1.5e-26)</t>
-  </si>
-  <si>
-    <t>biosynthetic-additional(rule-based-clusters) Orn_DAP_Arg_deC,biosynthetic-additional(rule-based-clusters) Orn_Arg_deC_N,biosynthetic-additional (smcogs)SMCOG1264:diaminopimelate decarboxylase (Score: 308.8%3bE-value: 6.4e-94)</t>
-  </si>
-  <si>
-    <t>transport (smcogs) SMCOG1184:majorfacilitator transporter (Score: 78.8%3b E-value: 5.4e-24)</t>
-  </si>
-  <si>
-    <t>ab initio prediction:Prodigal:002006</t>
-  </si>
-  <si>
-    <t>ab initio prediction:Prodigal:002006,similar to AA sequence:UniProtKB:P9WKH5</t>
-  </si>
-  <si>
-    <t>ab initio prediction:Prodigal:002006,similar to AA sequence:ISfinder:ISPmi1</t>
-  </si>
-  <si>
-    <t>ab initio prediction:Prodigal:002006,similar to AA sequence:UniProtKB:A6QDA0</t>
-  </si>
-  <si>
-    <t>ab initio prediction:Prodigal:002006,similar to AA sequence:UniProtKB:Q2G1N2</t>
-  </si>
-  <si>
-    <t>ab initio prediction:Prodigal:002006,similar to AA sequence:UniProtKB:Q2G1N1</t>
-  </si>
-  <si>
-    <t>ab initio prediction:Prodigal:002006,similar to AA sequence:UniProtKB:Q2G1N0</t>
-  </si>
-  <si>
-    <t>ab initio prediction:Prodigal:002006,similar to AA sequence:UniProtKB:Q2G1M9</t>
-  </si>
-  <si>
-    <t>ab initio prediction:Prodigal:002006,similar to AA sequence:UniProtKB:Q2G1M8</t>
-  </si>
-  <si>
-    <t>ab initio prediction:Prodigal:002006,similar to AA sequence:UniProtKB:P23522</t>
-  </si>
-  <si>
-    <t>ab initio prediction:Prodigal:002006,similar to AA sequence:UniProtKB:Q2G1M6</t>
-  </si>
-  <si>
-    <t>ab initio prediction:Prodigal:002006,similar to AA sequence:UniProtKB:T2KM26</t>
-  </si>
-  <si>
-    <t>ab initio prediction:Prodigal:002006,protein motif:HAMAP:MF_01813</t>
-  </si>
-  <si>
-    <t>ab initio prediction:Prodigal:002006,similar to AA sequence:UniProtKB:D9TQ02</t>
-  </si>
-  <si>
-    <t>ab initio prediction:Prodigal:002006,similar to AA sequence:UniProtKB:Q6Q272</t>
-  </si>
-  <si>
-    <t>ab initio prediction:Prodigal:002006,protein motif:HAMAP:MF_00768</t>
-  </si>
-  <si>
-    <t>ab initio prediction:Prodigal:002006,similar to AA sequence:ISfinder:ISMac10</t>
-  </si>
-  <si>
-    <t>ab initio prediction:Prodigal:002006,similar to AA sequence:UniProtKB:P46336</t>
-  </si>
-  <si>
-    <t>ab initio prediction:Prodigal:002006,similar to AA sequence:UniProtKB:Q89YS5</t>
-  </si>
-  <si>
-    <t>ab initio prediction:Prodigal:002006,similar to AA sequence:UniProtKB:K9NBS6</t>
-  </si>
-  <si>
-    <t>ab initio prediction:Prodigal:002006,similar to AA sequence:UniProtKB:A4F2N8</t>
-  </si>
-  <si>
-    <t>ab initio prediction:Prodigal:2.60,similar to AA sequence:RefSeq:YP_006708863.1</t>
-  </si>
-  <si>
-    <t>ab initio prediction:Prodigal:2.60,similar to AA sequence:RefSeq:YP_005740864.1</t>
-  </si>
-  <si>
-    <t>ab initio prediction:Prodigal:2.60,similar to AA sequence:RefSeq:YP_005740865.1</t>
-  </si>
-  <si>
-    <t>ab initio prediction:Prodigal:2.60,similar to AA sequence:RefSeq:YP_005740866.1</t>
-  </si>
-  <si>
-    <t>ab initio prediction:Prodigal:2.60,similar to AA sequence:RefSeq:YP_005740867.1</t>
-  </si>
-  <si>
-    <t>ab initio prediction:Prodigal:2.60,similar to AA sequence:RefSeq:YP_005740868.1</t>
-  </si>
-  <si>
-    <t>ab initio prediction:Prodigal:2.60,similar to AA sequence:RefSeq:YP_005740869.1</t>
-  </si>
-  <si>
-    <t>ab initio prediction:Prodigal:2.60,similar to AA sequence:RefSeq:YP_005740870.1</t>
-  </si>
-  <si>
-    <t>ab initio prediction:Prodigal:2.60,similar to AA sequence:RefSeq:YP_006194281.1</t>
-  </si>
-  <si>
-    <t>ab initio prediction:Prodigal:2.60,similar to AA sequence:RefSeq:YP_005740872.1</t>
-  </si>
-  <si>
-    <t>ab initio prediction:Prodigal:2.60,similar to AA sequence:RefSeq:YP_005740873.1</t>
-  </si>
-  <si>
-    <t>ab initio prediction:Prodigal:2.60,similar to AA sequence:RefSeq:YP_005740874.1</t>
   </si>
   <si>
     <t>2.5.1.140</t>
@@ -2197,7 +2197,7 @@
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="U2" t="s">
+      <c r="T2" t="s">
         <v>198</v>
       </c>
       <c r="X2" t="s">
@@ -2206,8 +2206,8 @@
       <c r="Z2">
         <v>11</v>
       </c>
-      <c r="AC2" t="s">
-        <v>401</v>
+      <c r="AA2" t="s">
+        <v>384</v>
       </c>
       <c r="AR2" t="s">
         <v>48</v>
@@ -2250,7 +2250,7 @@
       <c r="L3">
         <v>0</v>
       </c>
-      <c r="U3" t="s">
+      <c r="T3" t="s">
         <v>198</v>
       </c>
       <c r="X3" t="s">
@@ -2259,8 +2259,8 @@
       <c r="Z3">
         <v>11</v>
       </c>
-      <c r="AC3" t="s">
-        <v>401</v>
+      <c r="AA3" t="s">
+        <v>384</v>
       </c>
       <c r="AR3" t="s">
         <v>49</v>
@@ -2303,23 +2303,23 @@
       <c r="L4">
         <v>0</v>
       </c>
-      <c r="U4" t="s">
+      <c r="T4" t="s">
         <v>199</v>
       </c>
       <c r="X4" t="s">
         <v>233</v>
       </c>
+      <c r="Y4" t="s">
+        <v>340</v>
+      </c>
       <c r="Z4">
         <v>11</v>
       </c>
       <c r="AA4" t="s">
-        <v>352</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>357</v>
+        <v>385</v>
       </c>
       <c r="AC4" t="s">
-        <v>402</v>
+        <v>429</v>
       </c>
       <c r="AP4" t="s">
         <v>485</v>
@@ -2365,23 +2365,23 @@
       <c r="L5">
         <v>0</v>
       </c>
-      <c r="U5" t="s">
+      <c r="T5" t="s">
         <v>200</v>
       </c>
       <c r="X5" t="s">
         <v>234</v>
       </c>
+      <c r="Y5" t="s">
+        <v>341</v>
+      </c>
       <c r="Z5">
         <v>11</v>
       </c>
       <c r="AA5" t="s">
-        <v>352</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>358</v>
+        <v>386</v>
       </c>
       <c r="AC5" t="s">
-        <v>403</v>
+        <v>429</v>
       </c>
       <c r="AR5" t="s">
         <v>51</v>
@@ -2427,23 +2427,23 @@
       <c r="M6" t="s">
         <v>170</v>
       </c>
-      <c r="U6" t="s">
+      <c r="T6" t="s">
         <v>201</v>
       </c>
       <c r="X6" t="s">
         <v>235</v>
       </c>
+      <c r="Y6" t="s">
+        <v>342</v>
+      </c>
       <c r="Z6">
         <v>11</v>
       </c>
       <c r="AA6" t="s">
-        <v>353</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>359</v>
+        <v>387</v>
       </c>
       <c r="AC6" t="s">
-        <v>404</v>
+        <v>430</v>
       </c>
       <c r="AN6" t="s">
         <v>434</v>
@@ -2492,23 +2492,23 @@
       <c r="M7" t="s">
         <v>171</v>
       </c>
-      <c r="U7" t="s">
+      <c r="T7" t="s">
         <v>202</v>
       </c>
       <c r="X7" t="s">
         <v>236</v>
       </c>
+      <c r="Y7" t="s">
+        <v>343</v>
+      </c>
       <c r="Z7">
         <v>11</v>
       </c>
       <c r="AA7" t="s">
-        <v>353</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>360</v>
+        <v>388</v>
       </c>
       <c r="AC7" t="s">
-        <v>405</v>
+        <v>430</v>
       </c>
       <c r="AN7" t="s">
         <v>435</v>
@@ -2560,23 +2560,23 @@
       <c r="M8" t="s">
         <v>172</v>
       </c>
-      <c r="U8" t="s">
+      <c r="T8" t="s">
         <v>203</v>
       </c>
       <c r="X8" t="s">
         <v>237</v>
       </c>
+      <c r="Y8" t="s">
+        <v>344</v>
+      </c>
       <c r="Z8">
         <v>11</v>
       </c>
       <c r="AA8" t="s">
-        <v>354</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>361</v>
+        <v>389</v>
       </c>
       <c r="AC8" t="s">
-        <v>406</v>
+        <v>431</v>
       </c>
       <c r="AN8" t="s">
         <v>436</v>
@@ -2631,23 +2631,23 @@
       <c r="M9" t="s">
         <v>173</v>
       </c>
-      <c r="U9" t="s">
+      <c r="T9" t="s">
         <v>204</v>
       </c>
       <c r="X9" t="s">
         <v>238</v>
       </c>
+      <c r="Y9" t="s">
+        <v>345</v>
+      </c>
       <c r="Z9">
         <v>11</v>
       </c>
       <c r="AA9" t="s">
-        <v>355</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>362</v>
+        <v>390</v>
       </c>
       <c r="AC9" t="s">
-        <v>407</v>
+        <v>432</v>
       </c>
       <c r="AR9" t="s">
         <v>55</v>
@@ -2693,23 +2693,23 @@
       <c r="M10" t="s">
         <v>174</v>
       </c>
-      <c r="U10" t="s">
+      <c r="T10" t="s">
         <v>205</v>
       </c>
       <c r="X10" t="s">
         <v>239</v>
       </c>
+      <c r="Y10" t="s">
+        <v>344</v>
+      </c>
       <c r="Z10">
         <v>11</v>
       </c>
       <c r="AA10" t="s">
-        <v>354</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>361</v>
+        <v>391</v>
       </c>
       <c r="AC10" t="s">
-        <v>408</v>
+        <v>431</v>
       </c>
       <c r="AN10" t="s">
         <v>437</v>
@@ -2764,23 +2764,23 @@
       <c r="M11" t="s">
         <v>175</v>
       </c>
-      <c r="U11" t="s">
+      <c r="T11" t="s">
         <v>206</v>
       </c>
       <c r="X11" t="s">
         <v>240</v>
       </c>
+      <c r="Y11" t="s">
+        <v>344</v>
+      </c>
       <c r="Z11">
         <v>11</v>
       </c>
       <c r="AA11" t="s">
-        <v>354</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>361</v>
+        <v>392</v>
       </c>
       <c r="AC11" t="s">
-        <v>409</v>
+        <v>431</v>
       </c>
       <c r="AN11" t="s">
         <v>438</v>
@@ -2835,7 +2835,7 @@
       <c r="M12" t="s">
         <v>176</v>
       </c>
-      <c r="U12" t="s">
+      <c r="T12" t="s">
         <v>207</v>
       </c>
       <c r="X12" t="s">
@@ -2844,8 +2844,8 @@
       <c r="Z12">
         <v>11</v>
       </c>
-      <c r="AC12" t="s">
-        <v>410</v>
+      <c r="AA12" t="s">
+        <v>393</v>
       </c>
       <c r="AN12" t="s">
         <v>439</v>
@@ -2897,23 +2897,23 @@
       <c r="M13" t="s">
         <v>177</v>
       </c>
-      <c r="U13" t="s">
+      <c r="T13" t="s">
         <v>208</v>
       </c>
       <c r="X13" t="s">
         <v>242</v>
       </c>
+      <c r="Y13" t="s">
+        <v>346</v>
+      </c>
       <c r="Z13">
         <v>11</v>
       </c>
       <c r="AA13" t="s">
-        <v>353</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>363</v>
+        <v>394</v>
       </c>
       <c r="AC13" t="s">
-        <v>411</v>
+        <v>430</v>
       </c>
       <c r="AN13" t="s">
         <v>440</v>
@@ -2965,7 +2965,7 @@
       <c r="L14">
         <v>0</v>
       </c>
-      <c r="U14" t="s">
+      <c r="T14" t="s">
         <v>198</v>
       </c>
       <c r="X14" t="s">
@@ -2974,8 +2974,8 @@
       <c r="Z14">
         <v>11</v>
       </c>
-      <c r="AC14" t="s">
-        <v>401</v>
+      <c r="AA14" t="s">
+        <v>384</v>
       </c>
       <c r="AR14" t="s">
         <v>60</v>
@@ -3018,7 +3018,7 @@
       <c r="L15">
         <v>0</v>
       </c>
-      <c r="U15" t="s">
+      <c r="T15" t="s">
         <v>198</v>
       </c>
       <c r="X15" t="s">
@@ -3027,8 +3027,8 @@
       <c r="Z15">
         <v>11</v>
       </c>
-      <c r="AC15" t="s">
-        <v>401</v>
+      <c r="AA15" t="s">
+        <v>384</v>
       </c>
       <c r="AR15" t="s">
         <v>61</v>
@@ -3071,7 +3071,7 @@
       <c r="L16">
         <v>0</v>
       </c>
-      <c r="U16" t="s">
+      <c r="T16" t="s">
         <v>198</v>
       </c>
       <c r="X16" t="s">
@@ -3080,8 +3080,8 @@
       <c r="Z16">
         <v>11</v>
       </c>
-      <c r="AC16" t="s">
-        <v>401</v>
+      <c r="AA16" t="s">
+        <v>384</v>
       </c>
       <c r="AR16" t="s">
         <v>62</v>
@@ -3124,7 +3124,7 @@
       <c r="L17">
         <v>0</v>
       </c>
-      <c r="U17" t="s">
+      <c r="T17" t="s">
         <v>209</v>
       </c>
       <c r="X17" t="s">
@@ -3133,8 +3133,8 @@
       <c r="Z17">
         <v>11</v>
       </c>
-      <c r="AC17" t="s">
-        <v>412</v>
+      <c r="AA17" t="s">
+        <v>395</v>
       </c>
       <c r="AR17" t="s">
         <v>63</v>
@@ -3180,23 +3180,23 @@
       <c r="M18" t="s">
         <v>178</v>
       </c>
-      <c r="U18" t="s">
+      <c r="T18" t="s">
         <v>210</v>
       </c>
       <c r="X18" t="s">
         <v>247</v>
       </c>
+      <c r="Y18" t="s">
+        <v>347</v>
+      </c>
       <c r="Z18">
         <v>11</v>
       </c>
       <c r="AA18" t="s">
-        <v>353</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>364</v>
+        <v>396</v>
       </c>
       <c r="AC18" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="AN18" t="s">
         <v>441</v>
@@ -3245,23 +3245,23 @@
       <c r="M19" t="s">
         <v>177</v>
       </c>
-      <c r="U19" t="s">
+      <c r="T19" t="s">
         <v>208</v>
       </c>
       <c r="X19" t="s">
         <v>248</v>
       </c>
+      <c r="Y19" t="s">
+        <v>348</v>
+      </c>
       <c r="Z19">
         <v>11</v>
       </c>
       <c r="AA19" t="s">
-        <v>353</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="AC19" t="s">
-        <v>411</v>
+        <v>430</v>
       </c>
       <c r="AN19" t="s">
         <v>440</v>
@@ -3316,7 +3316,7 @@
       <c r="M20" t="s">
         <v>179</v>
       </c>
-      <c r="U20" t="s">
+      <c r="T20" t="s">
         <v>207</v>
       </c>
       <c r="X20" t="s">
@@ -3325,8 +3325,8 @@
       <c r="Z20">
         <v>11</v>
       </c>
-      <c r="AC20" t="s">
-        <v>410</v>
+      <c r="AA20" t="s">
+        <v>393</v>
       </c>
       <c r="AN20" t="s">
         <v>439</v>
@@ -3378,23 +3378,23 @@
       <c r="M21" t="s">
         <v>175</v>
       </c>
-      <c r="U21" t="s">
+      <c r="T21" t="s">
         <v>206</v>
       </c>
       <c r="X21" t="s">
         <v>250</v>
       </c>
+      <c r="Y21" t="s">
+        <v>344</v>
+      </c>
       <c r="Z21">
         <v>11</v>
       </c>
       <c r="AA21" t="s">
-        <v>354</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>361</v>
+        <v>392</v>
       </c>
       <c r="AC21" t="s">
-        <v>409</v>
+        <v>431</v>
       </c>
       <c r="AN21" t="s">
         <v>438</v>
@@ -3449,23 +3449,23 @@
       <c r="M22" t="s">
         <v>174</v>
       </c>
-      <c r="U22" t="s">
+      <c r="T22" t="s">
         <v>205</v>
       </c>
       <c r="X22" t="s">
         <v>251</v>
       </c>
+      <c r="Y22" t="s">
+        <v>344</v>
+      </c>
       <c r="Z22">
         <v>11</v>
       </c>
       <c r="AA22" t="s">
-        <v>354</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>361</v>
+        <v>391</v>
       </c>
       <c r="AC22" t="s">
-        <v>408</v>
+        <v>431</v>
       </c>
       <c r="AN22" t="s">
         <v>437</v>
@@ -3520,23 +3520,23 @@
       <c r="M23" t="s">
         <v>173</v>
       </c>
-      <c r="U23" t="s">
+      <c r="T23" t="s">
         <v>204</v>
       </c>
       <c r="X23" t="s">
         <v>252</v>
       </c>
+      <c r="Y23" t="s">
+        <v>349</v>
+      </c>
       <c r="Z23">
         <v>11</v>
       </c>
       <c r="AA23" t="s">
-        <v>355</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>366</v>
+        <v>390</v>
       </c>
       <c r="AC23" t="s">
-        <v>407</v>
+        <v>432</v>
       </c>
       <c r="AR23" t="s">
         <v>69</v>
@@ -3582,23 +3582,23 @@
       <c r="M24" t="s">
         <v>172</v>
       </c>
-      <c r="U24" t="s">
+      <c r="T24" t="s">
         <v>203</v>
       </c>
       <c r="X24" t="s">
         <v>253</v>
       </c>
+      <c r="Y24" t="s">
+        <v>344</v>
+      </c>
       <c r="Z24">
         <v>11</v>
       </c>
       <c r="AA24" t="s">
-        <v>354</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>361</v>
+        <v>389</v>
       </c>
       <c r="AC24" t="s">
-        <v>406</v>
+        <v>431</v>
       </c>
       <c r="AN24" t="s">
         <v>436</v>
@@ -3653,23 +3653,23 @@
       <c r="M25" t="s">
         <v>171</v>
       </c>
-      <c r="U25" t="s">
+      <c r="T25" t="s">
         <v>202</v>
       </c>
       <c r="X25" t="s">
         <v>254</v>
       </c>
+      <c r="Y25" t="s">
+        <v>350</v>
+      </c>
       <c r="Z25">
         <v>11</v>
       </c>
       <c r="AA25" t="s">
-        <v>353</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>367</v>
+        <v>388</v>
       </c>
       <c r="AC25" t="s">
-        <v>405</v>
+        <v>430</v>
       </c>
       <c r="AN25" t="s">
         <v>435</v>
@@ -3721,23 +3721,23 @@
       <c r="M26" t="s">
         <v>170</v>
       </c>
-      <c r="U26" t="s">
+      <c r="T26" t="s">
         <v>201</v>
       </c>
       <c r="X26" t="s">
         <v>255</v>
       </c>
+      <c r="Y26" t="s">
+        <v>351</v>
+      </c>
       <c r="Z26">
         <v>11</v>
       </c>
       <c r="AA26" t="s">
-        <v>353</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="AC26" t="s">
-        <v>404</v>
+        <v>430</v>
       </c>
       <c r="AN26" t="s">
         <v>434</v>
@@ -3786,7 +3786,7 @@
       <c r="M27" t="s">
         <v>180</v>
       </c>
-      <c r="U27" t="s">
+      <c r="T27" t="s">
         <v>211</v>
       </c>
       <c r="X27" t="s">
@@ -3795,8 +3795,8 @@
       <c r="Z27">
         <v>11</v>
       </c>
-      <c r="AC27" t="s">
-        <v>414</v>
+      <c r="AA27" t="s">
+        <v>397</v>
       </c>
       <c r="AN27" t="s">
         <v>442</v>
@@ -3845,23 +3845,23 @@
       <c r="M28" t="s">
         <v>181</v>
       </c>
-      <c r="U28" t="s">
+      <c r="T28" t="s">
         <v>212</v>
       </c>
       <c r="X28" t="s">
         <v>257</v>
       </c>
+      <c r="Y28" t="s">
+        <v>352</v>
+      </c>
       <c r="Z28">
         <v>11</v>
       </c>
       <c r="AA28" t="s">
-        <v>353</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>369</v>
+        <v>398</v>
       </c>
       <c r="AC28" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="AN28" t="s">
         <v>443</v>
@@ -3910,23 +3910,23 @@
       <c r="M29" t="s">
         <v>182</v>
       </c>
-      <c r="U29" t="s">
+      <c r="T29" t="s">
         <v>213</v>
       </c>
       <c r="X29" t="s">
         <v>258</v>
       </c>
+      <c r="Y29" t="s">
+        <v>353</v>
+      </c>
       <c r="Z29">
         <v>11</v>
       </c>
       <c r="AA29" t="s">
-        <v>356</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>370</v>
+        <v>399</v>
       </c>
       <c r="AC29" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="AR29" t="s">
         <v>75</v>
@@ -3969,7 +3969,7 @@
       <c r="L30">
         <v>0</v>
       </c>
-      <c r="U30" t="s">
+      <c r="T30" t="s">
         <v>198</v>
       </c>
       <c r="X30" t="s">
@@ -3978,8 +3978,8 @@
       <c r="Z30">
         <v>11</v>
       </c>
-      <c r="AC30" t="s">
-        <v>401</v>
+      <c r="AA30" t="s">
+        <v>384</v>
       </c>
       <c r="AR30" t="s">
         <v>76</v>
@@ -4025,23 +4025,23 @@
       <c r="M31" t="s">
         <v>177</v>
       </c>
-      <c r="U31" t="s">
+      <c r="T31" t="s">
         <v>208</v>
       </c>
       <c r="X31" t="s">
         <v>260</v>
       </c>
+      <c r="Y31" t="s">
+        <v>354</v>
+      </c>
       <c r="Z31">
         <v>11</v>
       </c>
       <c r="AA31" t="s">
-        <v>353</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>371</v>
+        <v>394</v>
       </c>
       <c r="AC31" t="s">
-        <v>411</v>
+        <v>430</v>
       </c>
       <c r="AN31" t="s">
         <v>440</v>
@@ -4096,7 +4096,7 @@
       <c r="M32" t="s">
         <v>179</v>
       </c>
-      <c r="U32" t="s">
+      <c r="T32" t="s">
         <v>207</v>
       </c>
       <c r="X32" t="s">
@@ -4105,8 +4105,8 @@
       <c r="Z32">
         <v>11</v>
       </c>
-      <c r="AC32" t="s">
-        <v>410</v>
+      <c r="AA32" t="s">
+        <v>393</v>
       </c>
       <c r="AN32" t="s">
         <v>439</v>
@@ -4158,23 +4158,23 @@
       <c r="M33" t="s">
         <v>175</v>
       </c>
-      <c r="U33" t="s">
+      <c r="T33" t="s">
         <v>206</v>
       </c>
       <c r="X33" t="s">
         <v>262</v>
       </c>
+      <c r="Y33" t="s">
+        <v>344</v>
+      </c>
       <c r="Z33">
         <v>11</v>
       </c>
       <c r="AA33" t="s">
-        <v>354</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>361</v>
+        <v>392</v>
       </c>
       <c r="AC33" t="s">
-        <v>409</v>
+        <v>431</v>
       </c>
       <c r="AN33" t="s">
         <v>438</v>
@@ -4229,23 +4229,23 @@
       <c r="M34" t="s">
         <v>174</v>
       </c>
-      <c r="U34" t="s">
+      <c r="T34" t="s">
         <v>205</v>
       </c>
       <c r="X34" t="s">
         <v>263</v>
       </c>
+      <c r="Y34" t="s">
+        <v>344</v>
+      </c>
       <c r="Z34">
         <v>11</v>
       </c>
       <c r="AA34" t="s">
-        <v>354</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>361</v>
+        <v>391</v>
       </c>
       <c r="AC34" t="s">
-        <v>408</v>
+        <v>431</v>
       </c>
       <c r="AN34" t="s">
         <v>437</v>
@@ -4300,23 +4300,23 @@
       <c r="M35" t="s">
         <v>173</v>
       </c>
-      <c r="U35" t="s">
+      <c r="T35" t="s">
         <v>204</v>
       </c>
       <c r="X35" t="s">
         <v>264</v>
       </c>
+      <c r="Y35" t="s">
+        <v>355</v>
+      </c>
       <c r="Z35">
         <v>11</v>
       </c>
       <c r="AA35" t="s">
-        <v>355</v>
-      </c>
-      <c r="AB35" t="s">
-        <v>372</v>
+        <v>390</v>
       </c>
       <c r="AC35" t="s">
-        <v>407</v>
+        <v>432</v>
       </c>
       <c r="AR35" t="s">
         <v>81</v>
@@ -4362,23 +4362,23 @@
       <c r="M36" t="s">
         <v>172</v>
       </c>
-      <c r="U36" t="s">
+      <c r="T36" t="s">
         <v>203</v>
       </c>
       <c r="X36" t="s">
         <v>265</v>
       </c>
+      <c r="Y36" t="s">
+        <v>344</v>
+      </c>
       <c r="Z36">
         <v>11</v>
       </c>
       <c r="AA36" t="s">
-        <v>354</v>
-      </c>
-      <c r="AB36" t="s">
-        <v>361</v>
+        <v>389</v>
       </c>
       <c r="AC36" t="s">
-        <v>406</v>
+        <v>431</v>
       </c>
       <c r="AN36" t="s">
         <v>436</v>
@@ -4433,23 +4433,23 @@
       <c r="M37" t="s">
         <v>171</v>
       </c>
-      <c r="U37" t="s">
+      <c r="T37" t="s">
         <v>202</v>
       </c>
       <c r="X37" t="s">
         <v>266</v>
       </c>
+      <c r="Y37" t="s">
+        <v>356</v>
+      </c>
       <c r="Z37">
         <v>11</v>
       </c>
       <c r="AA37" t="s">
-        <v>353</v>
-      </c>
-      <c r="AB37" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="AC37" t="s">
-        <v>405</v>
+        <v>430</v>
       </c>
       <c r="AN37" t="s">
         <v>435</v>
@@ -4501,23 +4501,23 @@
       <c r="M38" t="s">
         <v>170</v>
       </c>
-      <c r="U38" t="s">
+      <c r="T38" t="s">
         <v>201</v>
       </c>
       <c r="X38" t="s">
         <v>267</v>
       </c>
+      <c r="Y38" t="s">
+        <v>357</v>
+      </c>
       <c r="Z38">
         <v>11</v>
       </c>
       <c r="AA38" t="s">
-        <v>353</v>
-      </c>
-      <c r="AB38" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="AC38" t="s">
-        <v>404</v>
+        <v>430</v>
       </c>
       <c r="AN38" t="s">
         <v>434</v>
@@ -4560,7 +4560,7 @@
       <c r="G39" t="s">
         <v>169</v>
       </c>
-      <c r="U39" t="s">
+      <c r="T39" t="s">
         <v>214</v>
       </c>
       <c r="X39" t="s">
@@ -4569,8 +4569,8 @@
       <c r="Z39">
         <v>11</v>
       </c>
-      <c r="AC39" t="s">
-        <v>417</v>
+      <c r="AA39" t="s">
+        <v>400</v>
       </c>
       <c r="AR39" t="s">
         <v>85</v>
@@ -4616,23 +4616,23 @@
       <c r="M40" t="s">
         <v>183</v>
       </c>
-      <c r="U40" t="s">
+      <c r="T40" t="s">
         <v>215</v>
       </c>
       <c r="X40" t="s">
         <v>269</v>
       </c>
+      <c r="Y40" t="s">
+        <v>358</v>
+      </c>
       <c r="Z40">
         <v>11</v>
       </c>
       <c r="AA40" t="s">
-        <v>353</v>
-      </c>
-      <c r="AB40" t="s">
-        <v>375</v>
+        <v>401</v>
       </c>
       <c r="AC40" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="AN40" t="s">
         <v>444</v>
@@ -4684,7 +4684,7 @@
       <c r="M41" t="s">
         <v>180</v>
       </c>
-      <c r="U41" t="s">
+      <c r="T41" t="s">
         <v>211</v>
       </c>
       <c r="X41" t="s">
@@ -4693,8 +4693,8 @@
       <c r="Z41">
         <v>11</v>
       </c>
-      <c r="AC41" t="s">
-        <v>414</v>
+      <c r="AA41" t="s">
+        <v>397</v>
       </c>
       <c r="AN41" t="s">
         <v>442</v>
@@ -4746,23 +4746,23 @@
       <c r="M42" t="s">
         <v>184</v>
       </c>
-      <c r="U42" t="s">
+      <c r="T42" t="s">
         <v>201</v>
       </c>
       <c r="X42" t="s">
         <v>271</v>
       </c>
+      <c r="Y42" t="s">
+        <v>359</v>
+      </c>
       <c r="Z42">
         <v>11</v>
       </c>
       <c r="AA42" t="s">
-        <v>353</v>
-      </c>
-      <c r="AB42" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="AC42" t="s">
-        <v>404</v>
+        <v>430</v>
       </c>
       <c r="AN42" t="s">
         <v>434</v>
@@ -4811,23 +4811,23 @@
       <c r="M43" t="s">
         <v>171</v>
       </c>
-      <c r="U43" t="s">
+      <c r="T43" t="s">
         <v>202</v>
       </c>
       <c r="X43" t="s">
         <v>272</v>
       </c>
+      <c r="Y43" t="s">
+        <v>360</v>
+      </c>
       <c r="Z43">
         <v>11</v>
       </c>
       <c r="AA43" t="s">
-        <v>353</v>
-      </c>
-      <c r="AB43" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="AC43" t="s">
-        <v>405</v>
+        <v>430</v>
       </c>
       <c r="AN43" t="s">
         <v>435</v>
@@ -4879,23 +4879,23 @@
       <c r="M44" t="s">
         <v>172</v>
       </c>
-      <c r="U44" t="s">
+      <c r="T44" t="s">
         <v>203</v>
       </c>
       <c r="X44" t="s">
         <v>273</v>
       </c>
+      <c r="Y44" t="s">
+        <v>344</v>
+      </c>
       <c r="Z44">
         <v>11</v>
       </c>
       <c r="AA44" t="s">
-        <v>354</v>
-      </c>
-      <c r="AB44" t="s">
-        <v>361</v>
+        <v>389</v>
       </c>
       <c r="AC44" t="s">
-        <v>406</v>
+        <v>431</v>
       </c>
       <c r="AN44" t="s">
         <v>436</v>
@@ -4950,23 +4950,23 @@
       <c r="M45" t="s">
         <v>173</v>
       </c>
-      <c r="U45" t="s">
+      <c r="T45" t="s">
         <v>204</v>
       </c>
       <c r="X45" t="s">
         <v>274</v>
       </c>
+      <c r="Y45" t="s">
+        <v>361</v>
+      </c>
       <c r="Z45">
         <v>11</v>
       </c>
       <c r="AA45" t="s">
-        <v>355</v>
-      </c>
-      <c r="AB45" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="AC45" t="s">
-        <v>407</v>
+        <v>432</v>
       </c>
       <c r="AR45" t="s">
         <v>91</v>
@@ -5012,23 +5012,23 @@
       <c r="M46" t="s">
         <v>174</v>
       </c>
-      <c r="U46" t="s">
+      <c r="T46" t="s">
         <v>205</v>
       </c>
       <c r="X46" t="s">
         <v>275</v>
       </c>
+      <c r="Y46" t="s">
+        <v>344</v>
+      </c>
       <c r="Z46">
         <v>11</v>
       </c>
       <c r="AA46" t="s">
-        <v>354</v>
-      </c>
-      <c r="AB46" t="s">
-        <v>361</v>
+        <v>391</v>
       </c>
       <c r="AC46" t="s">
-        <v>408</v>
+        <v>431</v>
       </c>
       <c r="AN46" t="s">
         <v>437</v>
@@ -5083,23 +5083,23 @@
       <c r="M47" t="s">
         <v>175</v>
       </c>
-      <c r="U47" t="s">
+      <c r="T47" t="s">
         <v>206</v>
       </c>
       <c r="X47" t="s">
         <v>276</v>
       </c>
+      <c r="Y47" t="s">
+        <v>344</v>
+      </c>
       <c r="Z47">
         <v>11</v>
       </c>
       <c r="AA47" t="s">
-        <v>354</v>
-      </c>
-      <c r="AB47" t="s">
-        <v>361</v>
+        <v>392</v>
       </c>
       <c r="AC47" t="s">
-        <v>409</v>
+        <v>431</v>
       </c>
       <c r="AN47" t="s">
         <v>438</v>
@@ -5154,7 +5154,7 @@
       <c r="M48" t="s">
         <v>185</v>
       </c>
-      <c r="U48" t="s">
+      <c r="T48" t="s">
         <v>207</v>
       </c>
       <c r="X48" t="s">
@@ -5163,8 +5163,8 @@
       <c r="Z48">
         <v>11</v>
       </c>
-      <c r="AC48" t="s">
-        <v>410</v>
+      <c r="AA48" t="s">
+        <v>393</v>
       </c>
       <c r="AN48" t="s">
         <v>439</v>
@@ -5216,23 +5216,23 @@
       <c r="M49" t="s">
         <v>177</v>
       </c>
-      <c r="U49" t="s">
+      <c r="T49" t="s">
         <v>208</v>
       </c>
       <c r="X49" t="s">
         <v>278</v>
       </c>
+      <c r="Y49" t="s">
+        <v>362</v>
+      </c>
       <c r="Z49">
         <v>11</v>
       </c>
       <c r="AA49" t="s">
-        <v>353</v>
-      </c>
-      <c r="AB49" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="AC49" t="s">
-        <v>411</v>
+        <v>430</v>
       </c>
       <c r="AN49" t="s">
         <v>440</v>
@@ -5284,7 +5284,7 @@
       <c r="L50">
         <v>0</v>
       </c>
-      <c r="U50" t="s">
+      <c r="T50" t="s">
         <v>216</v>
       </c>
       <c r="X50" t="s">
@@ -5293,8 +5293,8 @@
       <c r="Z50">
         <v>11</v>
       </c>
-      <c r="AC50" t="s">
-        <v>419</v>
+      <c r="AA50" t="s">
+        <v>402</v>
       </c>
       <c r="AN50" t="s">
         <v>445</v>
@@ -5340,7 +5340,7 @@
       <c r="G51" t="s">
         <v>169</v>
       </c>
-      <c r="U51" t="s">
+      <c r="T51" t="s">
         <v>198</v>
       </c>
       <c r="X51" t="s">
@@ -5349,8 +5349,8 @@
       <c r="Z51">
         <v>11</v>
       </c>
-      <c r="AC51" t="s">
-        <v>401</v>
+      <c r="AA51" t="s">
+        <v>384</v>
       </c>
       <c r="AR51" t="s">
         <v>97</v>
@@ -5393,23 +5393,23 @@
       <c r="L52">
         <v>0</v>
       </c>
-      <c r="U52" t="s">
+      <c r="T52" t="s">
         <v>198</v>
       </c>
       <c r="X52" t="s">
         <v>281</v>
       </c>
+      <c r="Y52" t="s">
+        <v>363</v>
+      </c>
       <c r="Z52">
         <v>11</v>
       </c>
       <c r="AA52" t="s">
-        <v>352</v>
-      </c>
-      <c r="AB52" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="AC52" t="s">
-        <v>401</v>
+        <v>429</v>
       </c>
       <c r="AR52" t="s">
         <v>98</v>
@@ -5455,23 +5455,23 @@
       <c r="M53" t="s">
         <v>186</v>
       </c>
-      <c r="U53" t="s">
+      <c r="T53" t="s">
         <v>201</v>
       </c>
       <c r="X53" t="s">
         <v>282</v>
       </c>
+      <c r="Y53" t="s">
+        <v>364</v>
+      </c>
       <c r="Z53">
         <v>11</v>
       </c>
       <c r="AA53" t="s">
-        <v>353</v>
-      </c>
-      <c r="AB53" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="AC53" t="s">
-        <v>404</v>
+        <v>430</v>
       </c>
       <c r="AN53" t="s">
         <v>434</v>
@@ -5520,23 +5520,23 @@
       <c r="M54" t="s">
         <v>187</v>
       </c>
-      <c r="U54" t="s">
+      <c r="T54" t="s">
         <v>202</v>
       </c>
       <c r="X54" t="s">
         <v>283</v>
       </c>
+      <c r="Y54" t="s">
+        <v>365</v>
+      </c>
       <c r="Z54">
         <v>11</v>
       </c>
       <c r="AA54" t="s">
-        <v>353</v>
-      </c>
-      <c r="AB54" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="AC54" t="s">
-        <v>405</v>
+        <v>430</v>
       </c>
       <c r="AN54" t="s">
         <v>435</v>
@@ -5588,23 +5588,23 @@
       <c r="M55" t="s">
         <v>172</v>
       </c>
-      <c r="U55" t="s">
+      <c r="T55" t="s">
         <v>203</v>
       </c>
       <c r="X55" t="s">
         <v>284</v>
       </c>
+      <c r="Y55" t="s">
+        <v>344</v>
+      </c>
       <c r="Z55">
         <v>11</v>
       </c>
       <c r="AA55" t="s">
-        <v>354</v>
-      </c>
-      <c r="AB55" t="s">
-        <v>361</v>
+        <v>389</v>
       </c>
       <c r="AC55" t="s">
-        <v>406</v>
+        <v>431</v>
       </c>
       <c r="AN55" t="s">
         <v>436</v>
@@ -5659,23 +5659,23 @@
       <c r="M56" t="s">
         <v>173</v>
       </c>
-      <c r="U56" t="s">
+      <c r="T56" t="s">
         <v>204</v>
       </c>
       <c r="X56" t="s">
         <v>285</v>
       </c>
+      <c r="Y56" t="s">
+        <v>366</v>
+      </c>
       <c r="Z56">
         <v>11</v>
       </c>
       <c r="AA56" t="s">
-        <v>355</v>
-      </c>
-      <c r="AB56" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="AC56" t="s">
-        <v>407</v>
+        <v>432</v>
       </c>
       <c r="AR56" t="s">
         <v>102</v>
@@ -5721,23 +5721,23 @@
       <c r="M57" t="s">
         <v>174</v>
       </c>
-      <c r="U57" t="s">
+      <c r="T57" t="s">
         <v>205</v>
       </c>
       <c r="X57" t="s">
         <v>286</v>
       </c>
+      <c r="Y57" t="s">
+        <v>344</v>
+      </c>
       <c r="Z57">
         <v>11</v>
       </c>
       <c r="AA57" t="s">
-        <v>354</v>
-      </c>
-      <c r="AB57" t="s">
-        <v>361</v>
+        <v>391</v>
       </c>
       <c r="AC57" t="s">
-        <v>408</v>
+        <v>431</v>
       </c>
       <c r="AN57" t="s">
         <v>437</v>
@@ -5792,23 +5792,23 @@
       <c r="M58" t="s">
         <v>175</v>
       </c>
-      <c r="U58" t="s">
+      <c r="T58" t="s">
         <v>206</v>
       </c>
       <c r="X58" t="s">
         <v>287</v>
       </c>
+      <c r="Y58" t="s">
+        <v>344</v>
+      </c>
       <c r="Z58">
         <v>11</v>
       </c>
       <c r="AA58" t="s">
-        <v>354</v>
-      </c>
-      <c r="AB58" t="s">
-        <v>361</v>
+        <v>392</v>
       </c>
       <c r="AC58" t="s">
-        <v>409</v>
+        <v>431</v>
       </c>
       <c r="AN58" t="s">
         <v>438</v>
@@ -5863,7 +5863,7 @@
       <c r="M59" t="s">
         <v>176</v>
       </c>
-      <c r="U59" t="s">
+      <c r="T59" t="s">
         <v>207</v>
       </c>
       <c r="X59" t="s">
@@ -5872,8 +5872,8 @@
       <c r="Z59">
         <v>11</v>
       </c>
-      <c r="AC59" t="s">
-        <v>410</v>
+      <c r="AA59" t="s">
+        <v>393</v>
       </c>
       <c r="AN59" t="s">
         <v>439</v>
@@ -5925,23 +5925,23 @@
       <c r="M60" t="s">
         <v>177</v>
       </c>
-      <c r="U60" t="s">
+      <c r="T60" t="s">
         <v>208</v>
       </c>
       <c r="X60" t="s">
         <v>289</v>
       </c>
+      <c r="Y60" t="s">
+        <v>367</v>
+      </c>
       <c r="Z60">
         <v>11</v>
       </c>
       <c r="AA60" t="s">
-        <v>353</v>
-      </c>
-      <c r="AB60" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="AC60" t="s">
-        <v>411</v>
+        <v>430</v>
       </c>
       <c r="AN60" t="s">
         <v>440</v>
@@ -5993,23 +5993,23 @@
       <c r="L61">
         <v>0</v>
       </c>
-      <c r="U61" t="s">
+      <c r="T61" t="s">
         <v>198</v>
       </c>
       <c r="X61" t="s">
         <v>290</v>
       </c>
+      <c r="Y61" t="s">
+        <v>368</v>
+      </c>
       <c r="Z61">
         <v>11</v>
       </c>
       <c r="AA61" t="s">
-        <v>352</v>
-      </c>
-      <c r="AB61" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AC61" t="s">
-        <v>401</v>
+        <v>429</v>
       </c>
       <c r="AR61" t="s">
         <v>107</v>
@@ -6052,7 +6052,7 @@
       <c r="L62">
         <v>0</v>
       </c>
-      <c r="U62" t="s">
+      <c r="T62" t="s">
         <v>198</v>
       </c>
       <c r="X62" t="s">
@@ -6061,8 +6061,8 @@
       <c r="Z62">
         <v>11</v>
       </c>
-      <c r="AC62" t="s">
-        <v>401</v>
+      <c r="AA62" t="s">
+        <v>384</v>
       </c>
       <c r="AR62" t="s">
         <v>108</v>
@@ -6105,7 +6105,7 @@
       <c r="L63">
         <v>0</v>
       </c>
-      <c r="U63" t="s">
+      <c r="T63" t="s">
         <v>198</v>
       </c>
       <c r="X63" t="s">
@@ -6114,8 +6114,8 @@
       <c r="Z63">
         <v>11</v>
       </c>
-      <c r="AC63" t="s">
-        <v>401</v>
+      <c r="AA63" t="s">
+        <v>384</v>
       </c>
       <c r="AR63" t="s">
         <v>109</v>
@@ -6155,7 +6155,7 @@
       <c r="G64" t="s">
         <v>169</v>
       </c>
-      <c r="U64" t="s">
+      <c r="T64" t="s">
         <v>198</v>
       </c>
       <c r="X64" t="s">
@@ -6164,8 +6164,8 @@
       <c r="Z64">
         <v>11</v>
       </c>
-      <c r="AC64" t="s">
-        <v>401</v>
+      <c r="AA64" t="s">
+        <v>384</v>
       </c>
       <c r="AR64" t="s">
         <v>110</v>
@@ -6208,7 +6208,7 @@
       <c r="L65">
         <v>0</v>
       </c>
-      <c r="U65" t="s">
+      <c r="T65" t="s">
         <v>198</v>
       </c>
       <c r="X65" t="s">
@@ -6217,8 +6217,8 @@
       <c r="Z65">
         <v>11</v>
       </c>
-      <c r="AC65" t="s">
-        <v>401</v>
+      <c r="AA65" t="s">
+        <v>384</v>
       </c>
       <c r="AR65" t="s">
         <v>111</v>
@@ -6261,23 +6261,23 @@
       <c r="L66">
         <v>0</v>
       </c>
-      <c r="U66" t="s">
+      <c r="T66" t="s">
         <v>198</v>
       </c>
       <c r="X66" t="s">
         <v>295</v>
       </c>
+      <c r="Y66" t="s">
+        <v>369</v>
+      </c>
       <c r="Z66">
         <v>11</v>
       </c>
       <c r="AA66" t="s">
-        <v>352</v>
-      </c>
-      <c r="AB66" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AC66" t="s">
-        <v>401</v>
+        <v>429</v>
       </c>
       <c r="AR66" t="s">
         <v>112</v>
@@ -6323,23 +6323,23 @@
       <c r="M67" t="s">
         <v>186</v>
       </c>
-      <c r="U67" t="s">
+      <c r="T67" t="s">
         <v>201</v>
       </c>
       <c r="X67" t="s">
         <v>296</v>
       </c>
+      <c r="Y67" t="s">
+        <v>370</v>
+      </c>
       <c r="Z67">
         <v>11</v>
       </c>
       <c r="AA67" t="s">
-        <v>353</v>
-      </c>
-      <c r="AB67" t="s">
         <v>387</v>
       </c>
       <c r="AC67" t="s">
-        <v>404</v>
+        <v>430</v>
       </c>
       <c r="AN67" t="s">
         <v>434</v>
@@ -6388,23 +6388,23 @@
       <c r="M68" t="s">
         <v>187</v>
       </c>
-      <c r="U68" t="s">
+      <c r="T68" t="s">
         <v>202</v>
       </c>
       <c r="X68" t="s">
         <v>297</v>
       </c>
+      <c r="Y68" t="s">
+        <v>371</v>
+      </c>
       <c r="Z68">
         <v>11</v>
       </c>
       <c r="AA68" t="s">
-        <v>353</v>
-      </c>
-      <c r="AB68" t="s">
         <v>388</v>
       </c>
       <c r="AC68" t="s">
-        <v>405</v>
+        <v>430</v>
       </c>
       <c r="AN68" t="s">
         <v>435</v>
@@ -6456,23 +6456,23 @@
       <c r="M69" t="s">
         <v>172</v>
       </c>
-      <c r="U69" t="s">
+      <c r="T69" t="s">
         <v>203</v>
       </c>
       <c r="X69" t="s">
         <v>298</v>
       </c>
+      <c r="Y69" t="s">
+        <v>344</v>
+      </c>
       <c r="Z69">
         <v>11</v>
       </c>
       <c r="AA69" t="s">
-        <v>354</v>
-      </c>
-      <c r="AB69" t="s">
-        <v>361</v>
+        <v>389</v>
       </c>
       <c r="AC69" t="s">
-        <v>406</v>
+        <v>431</v>
       </c>
       <c r="AN69" t="s">
         <v>436</v>
@@ -6527,23 +6527,23 @@
       <c r="M70" t="s">
         <v>173</v>
       </c>
-      <c r="U70" t="s">
+      <c r="T70" t="s">
         <v>204</v>
       </c>
       <c r="X70" t="s">
         <v>299</v>
       </c>
+      <c r="Y70" t="s">
+        <v>372</v>
+      </c>
       <c r="Z70">
         <v>11</v>
       </c>
       <c r="AA70" t="s">
-        <v>355</v>
-      </c>
-      <c r="AB70" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AC70" t="s">
-        <v>407</v>
+        <v>432</v>
       </c>
       <c r="AR70" t="s">
         <v>116</v>
@@ -6589,23 +6589,23 @@
       <c r="M71" t="s">
         <v>174</v>
       </c>
-      <c r="U71" t="s">
+      <c r="T71" t="s">
         <v>205</v>
       </c>
       <c r="X71" t="s">
         <v>300</v>
       </c>
+      <c r="Y71" t="s">
+        <v>344</v>
+      </c>
       <c r="Z71">
         <v>11</v>
       </c>
       <c r="AA71" t="s">
-        <v>354</v>
-      </c>
-      <c r="AB71" t="s">
-        <v>361</v>
+        <v>391</v>
       </c>
       <c r="AC71" t="s">
-        <v>408</v>
+        <v>431</v>
       </c>
       <c r="AN71" t="s">
         <v>437</v>
@@ -6660,23 +6660,23 @@
       <c r="M72" t="s">
         <v>175</v>
       </c>
-      <c r="U72" t="s">
+      <c r="T72" t="s">
         <v>206</v>
       </c>
       <c r="X72" t="s">
         <v>301</v>
       </c>
+      <c r="Y72" t="s">
+        <v>344</v>
+      </c>
       <c r="Z72">
         <v>11</v>
       </c>
       <c r="AA72" t="s">
-        <v>354</v>
-      </c>
-      <c r="AB72" t="s">
-        <v>361</v>
+        <v>392</v>
       </c>
       <c r="AC72" t="s">
-        <v>409</v>
+        <v>431</v>
       </c>
       <c r="AN72" t="s">
         <v>438</v>
@@ -6731,7 +6731,7 @@
       <c r="M73" t="s">
         <v>179</v>
       </c>
-      <c r="U73" t="s">
+      <c r="T73" t="s">
         <v>207</v>
       </c>
       <c r="X73" t="s">
@@ -6740,8 +6740,8 @@
       <c r="Z73">
         <v>11</v>
       </c>
-      <c r="AC73" t="s">
-        <v>410</v>
+      <c r="AA73" t="s">
+        <v>393</v>
       </c>
       <c r="AN73" t="s">
         <v>439</v>
@@ -6793,23 +6793,23 @@
       <c r="M74" t="s">
         <v>177</v>
       </c>
-      <c r="U74" t="s">
+      <c r="T74" t="s">
         <v>208</v>
       </c>
       <c r="X74" t="s">
         <v>303</v>
       </c>
+      <c r="Y74" t="s">
+        <v>373</v>
+      </c>
       <c r="Z74">
         <v>11</v>
       </c>
       <c r="AA74" t="s">
-        <v>353</v>
-      </c>
-      <c r="AB74" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="AC74" t="s">
-        <v>411</v>
+        <v>430</v>
       </c>
       <c r="AN74" t="s">
         <v>440</v>
@@ -6864,23 +6864,23 @@
       <c r="M75" t="s">
         <v>188</v>
       </c>
-      <c r="U75" t="s">
+      <c r="T75" t="s">
         <v>217</v>
       </c>
       <c r="X75" t="s">
         <v>304</v>
       </c>
+      <c r="Y75" t="s">
+        <v>374</v>
+      </c>
       <c r="Z75">
         <v>11</v>
       </c>
       <c r="AA75" t="s">
-        <v>353</v>
-      </c>
-      <c r="AB75" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="AC75" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="AN75" t="s">
         <v>446</v>
@@ -6929,23 +6929,23 @@
       <c r="M76" t="s">
         <v>189</v>
       </c>
-      <c r="U76" t="s">
+      <c r="T76" t="s">
         <v>218</v>
       </c>
       <c r="X76" t="s">
         <v>305</v>
       </c>
+      <c r="Y76" t="s">
+        <v>375</v>
+      </c>
       <c r="Z76">
         <v>11</v>
       </c>
       <c r="AA76" t="s">
-        <v>353</v>
-      </c>
-      <c r="AB76" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="AC76" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="AN76" t="s">
         <v>447</v>
@@ -6994,26 +6994,26 @@
       <c r="M77" t="s">
         <v>190</v>
       </c>
-      <c r="U77" t="s">
+      <c r="T77" t="s">
         <v>219</v>
       </c>
       <c r="X77" t="s">
         <v>306</v>
       </c>
       <c r="Y77" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="Z77">
         <v>11</v>
       </c>
       <c r="AA77" t="s">
-        <v>355</v>
+        <v>405</v>
       </c>
       <c r="AB77" t="s">
-        <v>393</v>
+        <v>417</v>
       </c>
       <c r="AC77" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="AR77" t="s">
         <v>123</v>
@@ -7059,26 +7059,26 @@
       <c r="M78" t="s">
         <v>191</v>
       </c>
-      <c r="U78" t="s">
+      <c r="T78" t="s">
         <v>220</v>
       </c>
       <c r="X78" t="s">
         <v>307</v>
       </c>
       <c r="Y78" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="Z78">
         <v>11</v>
       </c>
       <c r="AA78" t="s">
-        <v>355</v>
+        <v>406</v>
       </c>
       <c r="AB78" t="s">
-        <v>394</v>
+        <v>418</v>
       </c>
       <c r="AC78" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="AR78" t="s">
         <v>124</v>
@@ -7124,26 +7124,26 @@
       <c r="M79" t="s">
         <v>192</v>
       </c>
-      <c r="U79" t="s">
+      <c r="T79" t="s">
         <v>221</v>
       </c>
       <c r="X79" t="s">
         <v>308</v>
       </c>
       <c r="Y79" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="Z79">
         <v>11</v>
       </c>
       <c r="AA79" t="s">
-        <v>355</v>
+        <v>407</v>
       </c>
       <c r="AB79" t="s">
-        <v>395</v>
+        <v>419</v>
       </c>
       <c r="AC79" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="AR79" t="s">
         <v>125</v>
@@ -7189,26 +7189,26 @@
       <c r="M80" t="s">
         <v>184</v>
       </c>
-      <c r="U80" t="s">
+      <c r="T80" t="s">
         <v>222</v>
       </c>
       <c r="X80" t="s">
         <v>309</v>
       </c>
       <c r="Y80" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="Z80">
         <v>11</v>
       </c>
       <c r="AA80" t="s">
-        <v>353</v>
+        <v>408</v>
       </c>
       <c r="AB80" t="s">
-        <v>396</v>
+        <v>420</v>
       </c>
       <c r="AC80" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="AN80" t="s">
         <v>448</v>
@@ -7257,26 +7257,26 @@
       <c r="M81" t="s">
         <v>171</v>
       </c>
-      <c r="U81" t="s">
+      <c r="T81" t="s">
         <v>223</v>
       </c>
       <c r="X81" t="s">
         <v>310</v>
       </c>
       <c r="Y81" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
       <c r="Z81">
         <v>11</v>
       </c>
       <c r="AA81" t="s">
-        <v>353</v>
+        <v>409</v>
       </c>
       <c r="AB81" t="s">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="AC81" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="AN81" t="s">
         <v>449</v>
@@ -7325,26 +7325,26 @@
       <c r="M82" t="s">
         <v>172</v>
       </c>
-      <c r="U82" t="s">
+      <c r="T82" t="s">
         <v>224</v>
       </c>
       <c r="X82" t="s">
         <v>311</v>
       </c>
       <c r="Y82" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Z82">
         <v>11</v>
       </c>
       <c r="AA82" t="s">
-        <v>354</v>
+        <v>410</v>
       </c>
       <c r="AB82" t="s">
-        <v>361</v>
+        <v>422</v>
       </c>
       <c r="AC82" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="AN82" t="s">
         <v>450</v>
@@ -7396,26 +7396,26 @@
       <c r="M83" t="s">
         <v>173</v>
       </c>
-      <c r="U83" t="s">
+      <c r="T83" t="s">
         <v>225</v>
       </c>
       <c r="X83" t="s">
         <v>312</v>
       </c>
       <c r="Y83" t="s">
-        <v>346</v>
+        <v>381</v>
       </c>
       <c r="Z83">
         <v>11</v>
       </c>
       <c r="AA83" t="s">
-        <v>355</v>
+        <v>411</v>
       </c>
       <c r="AB83" t="s">
-        <v>398</v>
+        <v>423</v>
       </c>
       <c r="AC83" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="AR83" t="s">
         <v>129</v>
@@ -7461,26 +7461,26 @@
       <c r="M84" t="s">
         <v>174</v>
       </c>
-      <c r="U84" t="s">
+      <c r="T84" t="s">
         <v>226</v>
       </c>
       <c r="X84" t="s">
         <v>313</v>
       </c>
       <c r="Y84" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="Z84">
         <v>11</v>
       </c>
       <c r="AA84" t="s">
-        <v>354</v>
+        <v>412</v>
       </c>
       <c r="AB84" t="s">
-        <v>361</v>
+        <v>424</v>
       </c>
       <c r="AC84" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="AN84" t="s">
         <v>450</v>
@@ -7532,26 +7532,26 @@
       <c r="M85" t="s">
         <v>193</v>
       </c>
-      <c r="U85" t="s">
+      <c r="T85" t="s">
         <v>227</v>
       </c>
       <c r="X85" t="s">
         <v>314</v>
       </c>
       <c r="Y85" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="Z85">
         <v>11</v>
       </c>
       <c r="AA85" t="s">
-        <v>354</v>
+        <v>413</v>
       </c>
       <c r="AB85" t="s">
-        <v>361</v>
+        <v>425</v>
       </c>
       <c r="AC85" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AN85" t="s">
         <v>451</v>
@@ -7603,20 +7603,20 @@
       <c r="M86" t="s">
         <v>194</v>
       </c>
-      <c r="U86" t="s">
+      <c r="T86" t="s">
         <v>228</v>
       </c>
       <c r="X86" t="s">
         <v>315</v>
       </c>
-      <c r="Y86" t="s">
-        <v>349</v>
-      </c>
       <c r="Z86">
         <v>11</v>
       </c>
-      <c r="AC86" t="s">
-        <v>431</v>
+      <c r="AA86" t="s">
+        <v>414</v>
+      </c>
+      <c r="AB86" t="s">
+        <v>426</v>
       </c>
       <c r="AN86" t="s">
         <v>439</v>
@@ -7665,26 +7665,26 @@
       <c r="M87" t="s">
         <v>177</v>
       </c>
-      <c r="U87" t="s">
+      <c r="T87" t="s">
         <v>229</v>
       </c>
       <c r="X87" t="s">
         <v>316</v>
       </c>
       <c r="Y87" t="s">
-        <v>350</v>
+        <v>382</v>
       </c>
       <c r="Z87">
         <v>11</v>
       </c>
       <c r="AA87" t="s">
-        <v>353</v>
+        <v>415</v>
       </c>
       <c r="AB87" t="s">
-        <v>399</v>
+        <v>427</v>
       </c>
       <c r="AC87" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="AN87" t="s">
         <v>452</v>
@@ -7733,20 +7733,20 @@
       <c r="M88" t="s">
         <v>195</v>
       </c>
-      <c r="U88" t="s">
+      <c r="T88" t="s">
         <v>230</v>
       </c>
       <c r="X88" t="s">
         <v>317</v>
       </c>
-      <c r="Y88" t="s">
-        <v>351</v>
-      </c>
       <c r="Z88">
         <v>11</v>
       </c>
-      <c r="AC88" t="s">
-        <v>433</v>
+      <c r="AA88" t="s">
+        <v>416</v>
+      </c>
+      <c r="AB88" t="s">
+        <v>428</v>
       </c>
       <c r="AR88" t="s">
         <v>134</v>
@@ -7792,23 +7792,23 @@
       <c r="M89" t="s">
         <v>196</v>
       </c>
-      <c r="U89" t="s">
+      <c r="T89" t="s">
         <v>213</v>
       </c>
       <c r="X89" t="s">
         <v>318</v>
       </c>
+      <c r="Y89" t="s">
+        <v>353</v>
+      </c>
       <c r="Z89">
         <v>11</v>
       </c>
       <c r="AA89" t="s">
-        <v>356</v>
-      </c>
-      <c r="AB89" t="s">
-        <v>370</v>
+        <v>399</v>
       </c>
       <c r="AC89" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="AR89" t="s">
         <v>135</v>
@@ -7851,7 +7851,7 @@
       <c r="L90">
         <v>0</v>
       </c>
-      <c r="U90" t="s">
+      <c r="T90" t="s">
         <v>198</v>
       </c>
       <c r="X90" t="s">
@@ -7860,8 +7860,8 @@
       <c r="Z90">
         <v>11</v>
       </c>
-      <c r="AC90" t="s">
-        <v>401</v>
+      <c r="AA90" t="s">
+        <v>384</v>
       </c>
       <c r="AR90" t="s">
         <v>136</v>
@@ -7907,23 +7907,23 @@
       <c r="M91" t="s">
         <v>177</v>
       </c>
-      <c r="U91" t="s">
+      <c r="T91" t="s">
         <v>208</v>
       </c>
       <c r="X91" t="s">
         <v>320</v>
       </c>
+      <c r="Y91" t="s">
+        <v>354</v>
+      </c>
       <c r="Z91">
         <v>11</v>
       </c>
       <c r="AA91" t="s">
-        <v>353</v>
-      </c>
-      <c r="AB91" t="s">
-        <v>371</v>
+        <v>394</v>
       </c>
       <c r="AC91" t="s">
-        <v>411</v>
+        <v>430</v>
       </c>
       <c r="AN91" t="s">
         <v>440</v>
@@ -7978,7 +7978,7 @@
       <c r="M92" t="s">
         <v>179</v>
       </c>
-      <c r="U92" t="s">
+      <c r="T92" t="s">
         <v>207</v>
       </c>
       <c r="X92" t="s">
@@ -7987,8 +7987,8 @@
       <c r="Z92">
         <v>11</v>
       </c>
-      <c r="AC92" t="s">
-        <v>410</v>
+      <c r="AA92" t="s">
+        <v>393</v>
       </c>
       <c r="AN92" t="s">
         <v>439</v>
@@ -8040,23 +8040,23 @@
       <c r="M93" t="s">
         <v>175</v>
       </c>
-      <c r="U93" t="s">
+      <c r="T93" t="s">
         <v>206</v>
       </c>
       <c r="X93" t="s">
         <v>322</v>
       </c>
+      <c r="Y93" t="s">
+        <v>344</v>
+      </c>
       <c r="Z93">
         <v>11</v>
       </c>
       <c r="AA93" t="s">
-        <v>354</v>
-      </c>
-      <c r="AB93" t="s">
-        <v>361</v>
+        <v>392</v>
       </c>
       <c r="AC93" t="s">
-        <v>409</v>
+        <v>431</v>
       </c>
       <c r="AN93" t="s">
         <v>438</v>
@@ -8111,23 +8111,23 @@
       <c r="M94" t="s">
         <v>174</v>
       </c>
-      <c r="U94" t="s">
+      <c r="T94" t="s">
         <v>205</v>
       </c>
       <c r="X94" t="s">
         <v>323</v>
       </c>
+      <c r="Y94" t="s">
+        <v>344</v>
+      </c>
       <c r="Z94">
         <v>11</v>
       </c>
       <c r="AA94" t="s">
-        <v>354</v>
-      </c>
-      <c r="AB94" t="s">
-        <v>361</v>
+        <v>391</v>
       </c>
       <c r="AC94" t="s">
-        <v>408</v>
+        <v>431</v>
       </c>
       <c r="AN94" t="s">
         <v>437</v>
@@ -8182,23 +8182,23 @@
       <c r="M95" t="s">
         <v>173</v>
       </c>
-      <c r="U95" t="s">
+      <c r="T95" t="s">
         <v>204</v>
       </c>
       <c r="X95" t="s">
         <v>324</v>
       </c>
+      <c r="Y95" t="s">
+        <v>355</v>
+      </c>
       <c r="Z95">
         <v>11</v>
       </c>
       <c r="AA95" t="s">
-        <v>355</v>
-      </c>
-      <c r="AB95" t="s">
-        <v>372</v>
+        <v>390</v>
       </c>
       <c r="AC95" t="s">
-        <v>407</v>
+        <v>432</v>
       </c>
       <c r="AR95" t="s">
         <v>141</v>
@@ -8244,23 +8244,23 @@
       <c r="M96" t="s">
         <v>172</v>
       </c>
-      <c r="U96" t="s">
+      <c r="T96" t="s">
         <v>203</v>
       </c>
       <c r="X96" t="s">
         <v>325</v>
       </c>
+      <c r="Y96" t="s">
+        <v>344</v>
+      </c>
       <c r="Z96">
         <v>11</v>
       </c>
       <c r="AA96" t="s">
-        <v>354</v>
-      </c>
-      <c r="AB96" t="s">
-        <v>361</v>
+        <v>389</v>
       </c>
       <c r="AC96" t="s">
-        <v>406</v>
+        <v>431</v>
       </c>
       <c r="AN96" t="s">
         <v>436</v>
@@ -8315,23 +8315,23 @@
       <c r="M97" t="s">
         <v>171</v>
       </c>
-      <c r="U97" t="s">
+      <c r="T97" t="s">
         <v>202</v>
       </c>
       <c r="X97" t="s">
         <v>326</v>
       </c>
+      <c r="Y97" t="s">
+        <v>356</v>
+      </c>
       <c r="Z97">
         <v>11</v>
       </c>
       <c r="AA97" t="s">
-        <v>353</v>
-      </c>
-      <c r="AB97" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="AC97" t="s">
-        <v>405</v>
+        <v>430</v>
       </c>
       <c r="AN97" t="s">
         <v>435</v>
@@ -8383,23 +8383,23 @@
       <c r="M98" t="s">
         <v>170</v>
       </c>
-      <c r="U98" t="s">
+      <c r="T98" t="s">
         <v>201</v>
       </c>
       <c r="X98" t="s">
         <v>327</v>
       </c>
+      <c r="Y98" t="s">
+        <v>357</v>
+      </c>
       <c r="Z98">
         <v>11</v>
       </c>
       <c r="AA98" t="s">
-        <v>353</v>
-      </c>
-      <c r="AB98" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="AC98" t="s">
-        <v>404</v>
+        <v>430</v>
       </c>
       <c r="AN98" t="s">
         <v>434</v>
@@ -8445,7 +8445,7 @@
       <c r="L99">
         <v>0</v>
       </c>
-      <c r="U99" t="s">
+      <c r="T99" t="s">
         <v>214</v>
       </c>
       <c r="X99" t="s">
@@ -8454,8 +8454,8 @@
       <c r="Z99">
         <v>11</v>
       </c>
-      <c r="AC99" t="s">
-        <v>417</v>
+      <c r="AA99" t="s">
+        <v>400</v>
       </c>
       <c r="AR99" t="s">
         <v>145</v>
@@ -8501,23 +8501,23 @@
       <c r="M100" t="s">
         <v>197</v>
       </c>
-      <c r="U100" t="s">
+      <c r="T100" t="s">
         <v>213</v>
       </c>
       <c r="X100" t="s">
         <v>329</v>
       </c>
+      <c r="Y100" t="s">
+        <v>353</v>
+      </c>
       <c r="Z100">
         <v>11</v>
       </c>
       <c r="AA100" t="s">
-        <v>356</v>
-      </c>
-      <c r="AB100" t="s">
-        <v>370</v>
+        <v>399</v>
       </c>
       <c r="AC100" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="AR100" t="s">
         <v>146</v>
@@ -8560,7 +8560,7 @@
       <c r="L101">
         <v>0</v>
       </c>
-      <c r="U101" t="s">
+      <c r="T101" t="s">
         <v>198</v>
       </c>
       <c r="X101" t="s">
@@ -8569,8 +8569,8 @@
       <c r="Z101">
         <v>11</v>
       </c>
-      <c r="AC101" t="s">
-        <v>401</v>
+      <c r="AA101" t="s">
+        <v>384</v>
       </c>
       <c r="AR101" t="s">
         <v>147</v>
@@ -8616,23 +8616,23 @@
       <c r="M102" t="s">
         <v>177</v>
       </c>
-      <c r="U102" t="s">
+      <c r="T102" t="s">
         <v>208</v>
       </c>
       <c r="X102" t="s">
         <v>331</v>
       </c>
+      <c r="Y102" t="s">
+        <v>354</v>
+      </c>
       <c r="Z102">
         <v>11</v>
       </c>
       <c r="AA102" t="s">
-        <v>353</v>
-      </c>
-      <c r="AB102" t="s">
-        <v>371</v>
+        <v>394</v>
       </c>
       <c r="AC102" t="s">
-        <v>411</v>
+        <v>430</v>
       </c>
       <c r="AN102" t="s">
         <v>440</v>
@@ -8687,7 +8687,7 @@
       <c r="M103" t="s">
         <v>185</v>
       </c>
-      <c r="U103" t="s">
+      <c r="T103" t="s">
         <v>207</v>
       </c>
       <c r="X103" t="s">
@@ -8696,8 +8696,8 @@
       <c r="Z103">
         <v>11</v>
       </c>
-      <c r="AC103" t="s">
-        <v>410</v>
+      <c r="AA103" t="s">
+        <v>393</v>
       </c>
       <c r="AN103" t="s">
         <v>439</v>
@@ -8749,23 +8749,23 @@
       <c r="M104" t="s">
         <v>175</v>
       </c>
-      <c r="U104" t="s">
+      <c r="T104" t="s">
         <v>206</v>
       </c>
       <c r="X104" t="s">
         <v>333</v>
       </c>
+      <c r="Y104" t="s">
+        <v>344</v>
+      </c>
       <c r="Z104">
         <v>11</v>
       </c>
       <c r="AA104" t="s">
-        <v>354</v>
-      </c>
-      <c r="AB104" t="s">
-        <v>361</v>
+        <v>392</v>
       </c>
       <c r="AC104" t="s">
-        <v>409</v>
+        <v>431</v>
       </c>
       <c r="AN104" t="s">
         <v>438</v>
@@ -8820,23 +8820,23 @@
       <c r="M105" t="s">
         <v>174</v>
       </c>
-      <c r="U105" t="s">
+      <c r="T105" t="s">
         <v>205</v>
       </c>
       <c r="X105" t="s">
         <v>334</v>
       </c>
+      <c r="Y105" t="s">
+        <v>344</v>
+      </c>
       <c r="Z105">
         <v>11</v>
       </c>
       <c r="AA105" t="s">
-        <v>354</v>
-      </c>
-      <c r="AB105" t="s">
-        <v>361</v>
+        <v>391</v>
       </c>
       <c r="AC105" t="s">
-        <v>408</v>
+        <v>431</v>
       </c>
       <c r="AN105" t="s">
         <v>437</v>
@@ -8891,23 +8891,23 @@
       <c r="M106" t="s">
         <v>173</v>
       </c>
-      <c r="U106" t="s">
+      <c r="T106" t="s">
         <v>204</v>
       </c>
       <c r="X106" t="s">
         <v>335</v>
       </c>
+      <c r="Y106" t="s">
+        <v>383</v>
+      </c>
       <c r="Z106">
         <v>11</v>
       </c>
       <c r="AA106" t="s">
-        <v>355</v>
-      </c>
-      <c r="AB106" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="AC106" t="s">
-        <v>407</v>
+        <v>432</v>
       </c>
       <c r="AR106" t="s">
         <v>152</v>
@@ -8953,23 +8953,23 @@
       <c r="M107" t="s">
         <v>172</v>
       </c>
-      <c r="U107" t="s">
+      <c r="T107" t="s">
         <v>203</v>
       </c>
       <c r="X107" t="s">
         <v>336</v>
       </c>
+      <c r="Y107" t="s">
+        <v>344</v>
+      </c>
       <c r="Z107">
         <v>11</v>
       </c>
       <c r="AA107" t="s">
-        <v>354</v>
-      </c>
-      <c r="AB107" t="s">
-        <v>361</v>
+        <v>389</v>
       </c>
       <c r="AC107" t="s">
-        <v>406</v>
+        <v>431</v>
       </c>
       <c r="AN107" t="s">
         <v>436</v>
@@ -9024,23 +9024,23 @@
       <c r="M108" t="s">
         <v>171</v>
       </c>
-      <c r="U108" t="s">
+      <c r="T108" t="s">
         <v>202</v>
       </c>
       <c r="X108" t="s">
         <v>337</v>
       </c>
+      <c r="Y108" t="s">
+        <v>356</v>
+      </c>
       <c r="Z108">
         <v>11</v>
       </c>
       <c r="AA108" t="s">
-        <v>353</v>
-      </c>
-      <c r="AB108" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="AC108" t="s">
-        <v>405</v>
+        <v>430</v>
       </c>
       <c r="AN108" t="s">
         <v>435</v>
@@ -9092,23 +9092,23 @@
       <c r="M109" t="s">
         <v>186</v>
       </c>
-      <c r="U109" t="s">
+      <c r="T109" t="s">
         <v>201</v>
       </c>
       <c r="X109" t="s">
         <v>338</v>
       </c>
+      <c r="Y109" t="s">
+        <v>357</v>
+      </c>
       <c r="Z109">
         <v>11</v>
       </c>
       <c r="AA109" t="s">
-        <v>353</v>
-      </c>
-      <c r="AB109" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="AC109" t="s">
-        <v>404</v>
+        <v>430</v>
       </c>
       <c r="AN109" t="s">
         <v>434</v>
@@ -9151,7 +9151,7 @@
       <c r="G110" t="s">
         <v>169</v>
       </c>
-      <c r="U110" t="s">
+      <c r="T110" t="s">
         <v>214</v>
       </c>
       <c r="X110" t="s">
@@ -9160,8 +9160,8 @@
       <c r="Z110">
         <v>11</v>
       </c>
-      <c r="AC110" t="s">
-        <v>417</v>
+      <c r="AA110" t="s">
+        <v>400</v>
       </c>
       <c r="AR110" t="s">
         <v>156</v>
@@ -16410,16 +16410,16 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1644</v>
+        <v>1727</v>
       </c>
       <c r="D2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E2" t="s">
         <v>313</v>
@@ -16431,30 +16431,30 @@
         <v>500</v>
       </c>
       <c r="H2">
-        <v>38.4</v>
+        <v>100</v>
       </c>
       <c r="I2">
-        <v>89.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="J2">
-        <v>1.94E-94</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>298</v>
+        <v>999</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1521</v>
+        <v>1644</v>
       </c>
       <c r="D3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E3" t="s">
         <v>313</v>
@@ -16466,56 +16466,56 @@
         <v>500</v>
       </c>
       <c r="H3">
-        <v>36.5</v>
+        <v>37.1</v>
       </c>
       <c r="I3">
-        <v>88.59999999999999</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="J3">
-        <v>1.23E-90</v>
+        <v>3.84E-94</v>
       </c>
       <c r="K3">
-        <v>287</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>151</v>
+        <v>70</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1644</v>
+        <v>1653</v>
       </c>
       <c r="D4" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G4" t="s">
         <v>500</v>
       </c>
       <c r="H4">
-        <v>38.4</v>
+        <v>33.2</v>
       </c>
       <c r="I4">
-        <v>89.40000000000001</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="J4">
-        <v>1.94E-94</v>
+        <v>3.9E-88</v>
       </c>
       <c r="K4">
-        <v>298</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>153</v>
+        <v>101</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -16524,7 +16524,7 @@
         <v>1725</v>
       </c>
       <c r="D5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E5" t="s">
         <v>311</v>
@@ -16536,91 +16536,91 @@
         <v>500</v>
       </c>
       <c r="H5">
-        <v>31</v>
+        <v>31.2</v>
       </c>
       <c r="I5">
         <v>97.59999999999999</v>
       </c>
       <c r="J5">
-        <v>7.009999999999999E-83</v>
+        <v>1.82E-83</v>
       </c>
       <c r="K5">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1593</v>
+        <v>1722</v>
       </c>
       <c r="D6" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G6" t="s">
         <v>500</v>
       </c>
       <c r="H6">
-        <v>37.4</v>
+        <v>31.8</v>
       </c>
       <c r="I6">
-        <v>89.59999999999999</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="J6">
-        <v>3.13E-95</v>
+        <v>3.9E-81</v>
       </c>
       <c r="K6">
-        <v>300</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1725</v>
+        <v>1593</v>
       </c>
       <c r="D7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G7" t="s">
         <v>500</v>
       </c>
       <c r="H7">
-        <v>30.9</v>
+        <v>37.4</v>
       </c>
       <c r="I7">
-        <v>97.59999999999999</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="J7">
-        <v>7.83E-81</v>
+        <v>3.13E-95</v>
       </c>
       <c r="K7">
-        <v>264</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -16629,7 +16629,7 @@
         <v>1644</v>
       </c>
       <c r="D8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E8" t="s">
         <v>313</v>
@@ -16641,13 +16641,13 @@
         <v>500</v>
       </c>
       <c r="H8">
-        <v>37.1</v>
+        <v>38.4</v>
       </c>
       <c r="I8">
         <v>89.40000000000001</v>
       </c>
       <c r="J8">
-        <v>3.84E-94</v>
+        <v>1.94E-94</v>
       </c>
       <c r="K8">
         <v>298</v>
@@ -16655,7 +16655,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>140</v>
+        <v>56</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -16664,7 +16664,7 @@
         <v>1644</v>
       </c>
       <c r="D9" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E9" t="s">
         <v>313</v>
@@ -16676,30 +16676,30 @@
         <v>500</v>
       </c>
       <c r="H9">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="I9">
         <v>89.40000000000001</v>
       </c>
       <c r="J9">
-        <v>1.94E-94</v>
+        <v>4.97E-95</v>
       </c>
       <c r="K9">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>1727</v>
+        <v>1644</v>
       </c>
       <c r="D10" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E10" t="s">
         <v>313</v>
@@ -16711,30 +16711,30 @@
         <v>500</v>
       </c>
       <c r="H10">
-        <v>100</v>
+        <v>38.4</v>
       </c>
       <c r="I10">
-        <v>100</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1.94E-94</v>
       </c>
       <c r="K10">
-        <v>999</v>
+        <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>1653</v>
+        <v>1725</v>
       </c>
       <c r="D11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E11" t="s">
         <v>311</v>
@@ -16746,100 +16746,100 @@
         <v>500</v>
       </c>
       <c r="H11">
-        <v>33.2</v>
+        <v>30.9</v>
       </c>
       <c r="I11">
-        <v>97.40000000000001</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="J11">
-        <v>3.9E-88</v>
+        <v>7.83E-81</v>
       </c>
       <c r="K11">
-        <v>282</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>153</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>1644</v>
+        <v>1725</v>
       </c>
       <c r="D12" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="E12" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G12" t="s">
         <v>500</v>
       </c>
       <c r="H12">
-        <v>38.3</v>
+        <v>31</v>
       </c>
       <c r="I12">
-        <v>89.40000000000001</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="J12">
-        <v>4.97E-95</v>
+        <v>7.009999999999999E-83</v>
       </c>
       <c r="K12">
-        <v>300</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>1725</v>
+        <v>1521</v>
       </c>
       <c r="D13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E13" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F13" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G13" t="s">
         <v>500</v>
       </c>
       <c r="H13">
-        <v>31.2</v>
+        <v>36.5</v>
       </c>
       <c r="I13">
-        <v>97.59999999999999</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="J13">
-        <v>1.82E-83</v>
+        <v>1.23E-90</v>
       </c>
       <c r="K13">
-        <v>271</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
-        <v>1722</v>
+        <v>1725</v>
       </c>
       <c r="D14" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E14" t="s">
         <v>311</v>
@@ -16851,30 +16851,30 @@
         <v>500</v>
       </c>
       <c r="H14">
-        <v>31.8</v>
+        <v>31</v>
       </c>
       <c r="I14">
-        <v>97.40000000000001</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="J14">
-        <v>3.9E-81</v>
+        <v>7.009999999999999E-83</v>
       </c>
       <c r="K14">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
-        <v>1635</v>
+        <v>1644</v>
       </c>
       <c r="D15" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E15" t="s">
         <v>313</v>
@@ -16886,21 +16886,21 @@
         <v>500</v>
       </c>
       <c r="H15">
-        <v>35.9</v>
+        <v>38.4</v>
       </c>
       <c r="I15">
-        <v>88.8</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="J15">
-        <v>4.28E-87</v>
+        <v>1.94E-94</v>
       </c>
       <c r="K15">
-        <v>279</v>
+        <v>298</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -16909,7 +16909,7 @@
         <v>1725</v>
       </c>
       <c r="D16" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E16" t="s">
         <v>311</v>
@@ -16921,100 +16921,100 @@
         <v>500</v>
       </c>
       <c r="H16">
-        <v>31</v>
+        <v>30.7</v>
       </c>
       <c r="I16">
         <v>97.59999999999999</v>
       </c>
       <c r="J16">
-        <v>7.009999999999999E-83</v>
+        <v>2.7E-82</v>
       </c>
       <c r="K16">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>1725</v>
+        <v>1635</v>
       </c>
       <c r="D17" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E17" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F17" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G17" t="s">
         <v>500</v>
       </c>
       <c r="H17">
-        <v>30.7</v>
+        <v>35.9</v>
       </c>
       <c r="I17">
-        <v>97.59999999999999</v>
+        <v>88.8</v>
       </c>
       <c r="J17">
-        <v>2.7E-82</v>
+        <v>4.28E-87</v>
       </c>
       <c r="K17">
-        <v>268</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>1764</v>
+        <v>1745</v>
       </c>
       <c r="D18" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E18" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F18" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="G18" t="s">
         <v>502</v>
       </c>
       <c r="H18">
-        <v>43.4</v>
+        <v>100</v>
       </c>
       <c r="I18">
-        <v>96.3</v>
+        <v>100</v>
       </c>
       <c r="J18">
-        <v>7.95E-137</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>410</v>
+        <v>999</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>1758</v>
+        <v>1764</v>
       </c>
       <c r="D19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E19" t="s">
         <v>314</v>
@@ -17026,21 +17026,21 @@
         <v>502</v>
       </c>
       <c r="H19">
-        <v>42.2</v>
+        <v>43.5</v>
       </c>
       <c r="I19">
         <v>96.3</v>
       </c>
       <c r="J19">
-        <v>2.64E-134</v>
+        <v>2.82E-137</v>
       </c>
       <c r="K19">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>150</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -17049,7 +17049,7 @@
         <v>1764</v>
       </c>
       <c r="D20" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="E20" t="s">
         <v>314</v>
@@ -17067,10 +17067,10 @@
         <v>96.3</v>
       </c>
       <c r="J20">
-        <v>6.3E-136</v>
+        <v>7.95E-137</v>
       </c>
       <c r="K20">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -17110,7 +17110,7 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -17119,7 +17119,7 @@
         <v>1764</v>
       </c>
       <c r="D22" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E22" t="s">
         <v>314</v>
@@ -17131,36 +17131,36 @@
         <v>502</v>
       </c>
       <c r="H22">
-        <v>43.5</v>
+        <v>43.4</v>
       </c>
       <c r="I22">
         <v>96.3</v>
       </c>
       <c r="J22">
-        <v>2.82E-137</v>
+        <v>7.95E-137</v>
       </c>
       <c r="K22">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23">
-        <v>1745</v>
+        <v>1769</v>
       </c>
       <c r="D23" t="s">
         <v>164</v>
       </c>
       <c r="E23" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="F23" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="G23" t="s">
         <v>502</v>
@@ -17180,7 +17180,7 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>150</v>
+        <v>57</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -17189,7 +17189,7 @@
         <v>1764</v>
       </c>
       <c r="D24" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="E24" t="s">
         <v>314</v>
@@ -17207,24 +17207,24 @@
         <v>96.3</v>
       </c>
       <c r="J24">
-        <v>7.95E-137</v>
+        <v>6.3E-136</v>
       </c>
       <c r="K24">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>139</v>
+        <v>67</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25">
-        <v>1764</v>
+        <v>1749</v>
       </c>
       <c r="D25" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E25" t="s">
         <v>314</v>
@@ -17236,30 +17236,30 @@
         <v>502</v>
       </c>
       <c r="H25">
-        <v>43.4</v>
+        <v>42.9</v>
       </c>
       <c r="I25">
         <v>96.3</v>
       </c>
       <c r="J25">
-        <v>7.95E-137</v>
+        <v>1.35E-133</v>
       </c>
       <c r="K25">
-        <v>410</v>
+        <v>401</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>1769</v>
+        <v>1764</v>
       </c>
       <c r="D26" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E26" t="s">
         <v>314</v>
@@ -17271,30 +17271,30 @@
         <v>502</v>
       </c>
       <c r="H26">
-        <v>100</v>
+        <v>43.4</v>
       </c>
       <c r="I26">
-        <v>100</v>
+        <v>96.3</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>7.95E-137</v>
       </c>
       <c r="K26">
-        <v>999</v>
+        <v>410</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>118</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>1749</v>
+        <v>1758</v>
       </c>
       <c r="D27" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E27" t="s">
         <v>314</v>
@@ -17306,21 +17306,21 @@
         <v>502</v>
       </c>
       <c r="H27">
-        <v>42.9</v>
+        <v>42.2</v>
       </c>
       <c r="I27">
         <v>96.3</v>
       </c>
       <c r="J27">
-        <v>1.35E-133</v>
+        <v>2.64E-134</v>
       </c>
       <c r="K27">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" t="s">
-        <v>88</v>
+        <v>155</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -17329,7 +17329,7 @@
         <v>984</v>
       </c>
       <c r="D28" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="E28" t="s">
         <v>309</v>
@@ -17341,21 +17341,21 @@
         <v>498</v>
       </c>
       <c r="H28">
-        <v>52.2</v>
+        <v>52.7</v>
       </c>
       <c r="I28">
-        <v>95.09999999999999</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="J28">
-        <v>5.640000000000001E-122</v>
+        <v>4.59E-121</v>
       </c>
       <c r="K28">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" t="s">
-        <v>144</v>
+        <v>52</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -17364,7 +17364,7 @@
         <v>984</v>
       </c>
       <c r="D29" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E29" t="s">
         <v>309</v>
@@ -17376,21 +17376,21 @@
         <v>498</v>
       </c>
       <c r="H29">
-        <v>52.7</v>
+        <v>52.4</v>
       </c>
       <c r="I29">
         <v>95.40000000000001</v>
       </c>
       <c r="J29">
-        <v>4.59E-121</v>
+        <v>3.73E-120</v>
       </c>
       <c r="K29">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -17399,7 +17399,7 @@
         <v>984</v>
       </c>
       <c r="D30" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E30" t="s">
         <v>309</v>
@@ -17411,21 +17411,21 @@
         <v>498</v>
       </c>
       <c r="H30">
-        <v>52.7</v>
+        <v>53.5</v>
       </c>
       <c r="I30">
-        <v>95.40000000000001</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="J30">
-        <v>1.31E-120</v>
+        <v>5.22E-125</v>
       </c>
       <c r="K30">
-        <v>349</v>
+        <v>360</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -17434,7 +17434,7 @@
         <v>984</v>
       </c>
       <c r="D31" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E31" t="s">
         <v>309</v>
@@ -17452,15 +17452,15 @@
         <v>95.40000000000001</v>
       </c>
       <c r="J31">
-        <v>4.59E-121</v>
+        <v>1.31E-120</v>
       </c>
       <c r="K31">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -17469,7 +17469,7 @@
         <v>984</v>
       </c>
       <c r="D32" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E32" t="s">
         <v>309</v>
@@ -17495,7 +17495,7 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -17504,7 +17504,7 @@
         <v>984</v>
       </c>
       <c r="D33" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E33" t="s">
         <v>309</v>
@@ -17516,21 +17516,21 @@
         <v>498</v>
       </c>
       <c r="H33">
-        <v>53.7</v>
+        <v>52.7</v>
       </c>
       <c r="I33">
         <v>95.40000000000001</v>
       </c>
       <c r="J33">
-        <v>8.53E-124</v>
+        <v>4.59E-121</v>
       </c>
       <c r="K33">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -17539,7 +17539,7 @@
         <v>984</v>
       </c>
       <c r="D34" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E34" t="s">
         <v>309</v>
@@ -17551,30 +17551,30 @@
         <v>498</v>
       </c>
       <c r="H34">
-        <v>53.5</v>
+        <v>53.7</v>
       </c>
       <c r="I34">
-        <v>95.09999999999999</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="J34">
-        <v>5.22E-125</v>
+        <v>8.53E-124</v>
       </c>
       <c r="K34">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>52</v>
+        <v>126</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>984</v>
+        <v>971</v>
       </c>
       <c r="D35" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="E35" t="s">
         <v>309</v>
@@ -17586,30 +17586,30 @@
         <v>498</v>
       </c>
       <c r="H35">
-        <v>52.4</v>
+        <v>100</v>
       </c>
       <c r="I35">
-        <v>95.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="J35">
-        <v>3.73E-120</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>348</v>
+        <v>999</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="B36">
         <v>0</v>
       </c>
       <c r="C36">
-        <v>971</v>
+        <v>984</v>
       </c>
       <c r="D36" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E36" t="s">
         <v>309</v>
@@ -17621,16 +17621,16 @@
         <v>498</v>
       </c>
       <c r="H36">
-        <v>100</v>
+        <v>52.2</v>
       </c>
       <c r="I36">
-        <v>100</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>5.640000000000001E-122</v>
       </c>
       <c r="K36">
-        <v>999</v>
+        <v>352</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -17670,16 +17670,16 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>1014</v>
+        <v>1020</v>
       </c>
       <c r="D38" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E38" t="s">
         <v>310</v>
@@ -17691,21 +17691,21 @@
         <v>499</v>
       </c>
       <c r="H38">
-        <v>58</v>
+        <v>58.3</v>
       </c>
       <c r="I38">
         <v>99.09999999999999</v>
       </c>
       <c r="J38">
-        <v>7.059999999999999E-140</v>
+        <v>1.76E-138</v>
       </c>
       <c r="K38">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>100</v>
+        <v>154</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -17714,7 +17714,7 @@
         <v>1014</v>
       </c>
       <c r="D39" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E39" t="s">
         <v>310</v>
@@ -17726,16 +17726,16 @@
         <v>499</v>
       </c>
       <c r="H39">
-        <v>58</v>
+        <v>57.7</v>
       </c>
       <c r="I39">
         <v>99.09999999999999</v>
       </c>
       <c r="J39">
-        <v>2.02E-139</v>
+        <v>2.33E-138</v>
       </c>
       <c r="K39">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -17775,7 +17775,7 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>154</v>
+        <v>53</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -17784,7 +17784,7 @@
         <v>1014</v>
       </c>
       <c r="D41" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="E41" t="s">
         <v>310</v>
@@ -17796,30 +17796,30 @@
         <v>499</v>
       </c>
       <c r="H41">
-        <v>57.7</v>
+        <v>58</v>
       </c>
       <c r="I41">
         <v>99.09999999999999</v>
       </c>
       <c r="J41">
-        <v>2.33E-138</v>
+        <v>7.059999999999999E-140</v>
       </c>
       <c r="K41">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42">
-        <v>1001</v>
+        <v>1014</v>
       </c>
       <c r="D42" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E42" t="s">
         <v>310</v>
@@ -17831,30 +17831,30 @@
         <v>499</v>
       </c>
       <c r="H42">
-        <v>100</v>
+        <v>57.7</v>
       </c>
       <c r="I42">
-        <v>100</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>2.33E-138</v>
       </c>
       <c r="K42">
-        <v>999</v>
+        <v>395</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43">
-        <v>1020</v>
+        <v>1001</v>
       </c>
       <c r="D43" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E43" t="s">
         <v>310</v>
@@ -17866,30 +17866,30 @@
         <v>499</v>
       </c>
       <c r="H43">
-        <v>58.3</v>
+        <v>100</v>
       </c>
       <c r="I43">
-        <v>99.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="J43">
-        <v>1.76E-138</v>
+        <v>0</v>
       </c>
       <c r="K43">
-        <v>395</v>
+        <v>999</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44">
-        <v>1014</v>
+        <v>1020</v>
       </c>
       <c r="D44" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E44" t="s">
         <v>310</v>
@@ -17901,30 +17901,30 @@
         <v>499</v>
       </c>
       <c r="H44">
-        <v>57.7</v>
+        <v>59.8</v>
       </c>
       <c r="I44">
         <v>99.09999999999999</v>
       </c>
       <c r="J44">
-        <v>2.33E-138</v>
+        <v>2.1E-144</v>
       </c>
       <c r="K44">
-        <v>395</v>
+        <v>410</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
       <c r="C45">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="D45" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E45" t="s">
         <v>310</v>
@@ -17936,30 +17936,30 @@
         <v>499</v>
       </c>
       <c r="H45">
-        <v>59.8</v>
+        <v>58</v>
       </c>
       <c r="I45">
         <v>99.09999999999999</v>
       </c>
       <c r="J45">
-        <v>2.1E-144</v>
+        <v>2.02E-139</v>
       </c>
       <c r="K45">
-        <v>410</v>
+        <v>397</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" t="s">
-        <v>129</v>
+        <v>55</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46">
-        <v>1163</v>
+        <v>1218</v>
       </c>
       <c r="D46" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E46" t="s">
         <v>312</v>
@@ -17971,30 +17971,30 @@
         <v>501</v>
       </c>
       <c r="H46">
-        <v>100</v>
+        <v>32.7</v>
       </c>
       <c r="I46">
-        <v>100</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>2.44E-54</v>
       </c>
       <c r="K46">
-        <v>999</v>
+        <v>184</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47">
-        <v>1206</v>
+        <v>1218</v>
       </c>
       <c r="D47" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E47" t="s">
         <v>312</v>
@@ -18006,21 +18006,21 @@
         <v>501</v>
       </c>
       <c r="H47">
-        <v>36</v>
+        <v>33.4</v>
       </c>
       <c r="I47">
-        <v>89.5</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="J47">
-        <v>3.21E-63</v>
+        <v>1.64E-55</v>
       </c>
       <c r="K47">
-        <v>207</v>
+        <v>187</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" t="s">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -18029,7 +18029,7 @@
         <v>1218</v>
       </c>
       <c r="D48" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E48" t="s">
         <v>312</v>
@@ -18090,16 +18090,16 @@
     </row>
     <row r="50" spans="1:11">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="C50">
-        <v>1218</v>
+        <v>1224</v>
       </c>
       <c r="D50" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E50" t="s">
         <v>312</v>
@@ -18111,21 +18111,21 @@
         <v>501</v>
       </c>
       <c r="H50">
-        <v>32.7</v>
+        <v>33.1</v>
       </c>
       <c r="I50">
-        <v>92.59999999999999</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="J50">
-        <v>2.44E-54</v>
+        <v>8E-62</v>
       </c>
       <c r="K50">
-        <v>184</v>
+        <v>203</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" t="s">
-        <v>152</v>
+        <v>102</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -18134,7 +18134,7 @@
         <v>1218</v>
       </c>
       <c r="D51" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E51" t="s">
         <v>312</v>
@@ -18146,30 +18146,30 @@
         <v>501</v>
       </c>
       <c r="H51">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="I51">
         <v>92.59999999999999</v>
       </c>
       <c r="J51">
-        <v>1.74E-54</v>
+        <v>3.02E-56</v>
       </c>
       <c r="K51">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
       <c r="C52">
-        <v>1218</v>
+        <v>1206</v>
       </c>
       <c r="D52" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E52" t="s">
         <v>312</v>
@@ -18181,30 +18181,30 @@
         <v>501</v>
       </c>
       <c r="H52">
-        <v>33.2</v>
+        <v>36</v>
       </c>
       <c r="I52">
-        <v>92.59999999999999</v>
+        <v>89.5</v>
       </c>
       <c r="J52">
-        <v>3.02E-56</v>
+        <v>3.21E-63</v>
       </c>
       <c r="K52">
-        <v>189</v>
+        <v>207</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53">
-        <v>1218</v>
+        <v>1163</v>
       </c>
       <c r="D53" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E53" t="s">
         <v>312</v>
@@ -18216,30 +18216,30 @@
         <v>501</v>
       </c>
       <c r="H53">
-        <v>33.4</v>
+        <v>100</v>
       </c>
       <c r="I53">
-        <v>92.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="J53">
-        <v>1.64E-55</v>
+        <v>0</v>
       </c>
       <c r="K53">
-        <v>187</v>
+        <v>999</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" t="s">
-        <v>91</v>
+        <v>152</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
       <c r="C54">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="D54" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="E54" t="s">
         <v>312</v>
@@ -18254,27 +18254,27 @@
         <v>33.1</v>
       </c>
       <c r="I54">
-        <v>96.40000000000001</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="J54">
-        <v>8E-62</v>
+        <v>1.74E-54</v>
       </c>
       <c r="K54">
-        <v>203</v>
+        <v>184</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
       <c r="C55">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="D55" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E55" t="s">
         <v>316</v>
@@ -18286,16 +18286,16 @@
         <v>504</v>
       </c>
       <c r="H55">
-        <v>48.6</v>
+        <v>100</v>
       </c>
       <c r="I55">
-        <v>95.8</v>
+        <v>100</v>
       </c>
       <c r="J55">
-        <v>6.26E-135</v>
+        <v>0</v>
       </c>
       <c r="K55">
-        <v>391</v>
+        <v>999</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -18335,16 +18335,16 @@
     </row>
     <row r="57" spans="1:11">
       <c r="A57" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
       <c r="C57">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="D57" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E57" t="s">
         <v>316</v>
@@ -18356,21 +18356,21 @@
         <v>504</v>
       </c>
       <c r="H57">
-        <v>100</v>
+        <v>48.6</v>
       </c>
       <c r="I57">
-        <v>100</v>
+        <v>95.8</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>6.26E-135</v>
       </c>
       <c r="K57">
-        <v>999</v>
+        <v>391</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" t="s">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -18379,7 +18379,7 @@
         <v>1194</v>
       </c>
       <c r="D58" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E58" t="s">
         <v>316</v>
@@ -18405,16 +18405,16 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
       <c r="C59">
-        <v>1194</v>
+        <v>1179</v>
       </c>
       <c r="D59" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E59" t="s">
         <v>316</v>
@@ -18429,27 +18429,27 @@
         <v>48.8</v>
       </c>
       <c r="I59">
-        <v>95.8</v>
+        <v>94.3</v>
       </c>
       <c r="J59">
-        <v>8.240000000000001E-133</v>
+        <v>1.84E-130</v>
       </c>
       <c r="K59">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
       <c r="C60">
-        <v>1179</v>
+        <v>1194</v>
       </c>
       <c r="D60" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E60" t="s">
         <v>316</v>
@@ -18461,30 +18461,30 @@
         <v>504</v>
       </c>
       <c r="H60">
-        <v>48</v>
+        <v>48.9</v>
       </c>
       <c r="I60">
-        <v>95.3</v>
+        <v>94</v>
       </c>
       <c r="J60">
-        <v>1.6E-131</v>
+        <v>3.32E-132</v>
       </c>
       <c r="K60">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
       <c r="C61">
-        <v>1194</v>
+        <v>1179</v>
       </c>
       <c r="D61" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E61" t="s">
         <v>316</v>
@@ -18496,30 +18496,30 @@
         <v>504</v>
       </c>
       <c r="H61">
-        <v>48.9</v>
+        <v>48</v>
       </c>
       <c r="I61">
-        <v>94</v>
+        <v>95.3</v>
       </c>
       <c r="J61">
-        <v>3.32E-132</v>
+        <v>1.6E-131</v>
       </c>
       <c r="K61">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
       <c r="C62">
-        <v>1179</v>
+        <v>1194</v>
       </c>
       <c r="D62" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E62" t="s">
         <v>316</v>
@@ -18531,21 +18531,21 @@
         <v>504</v>
       </c>
       <c r="H62">
-        <v>48.8</v>
+        <v>49.1</v>
       </c>
       <c r="I62">
-        <v>94.3</v>
+        <v>95.8</v>
       </c>
       <c r="J62">
-        <v>1.84E-130</v>
+        <v>2.04E-133</v>
       </c>
       <c r="K62">
-        <v>379</v>
+        <v>387</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -18554,7 +18554,7 @@
         <v>1194</v>
       </c>
       <c r="D63" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E63" t="s">
         <v>316</v>
@@ -18566,30 +18566,30 @@
         <v>504</v>
       </c>
       <c r="H63">
-        <v>49.1</v>
+        <v>48.8</v>
       </c>
       <c r="I63">
         <v>95.8</v>
       </c>
       <c r="J63">
-        <v>2.04E-133</v>
+        <v>8.240000000000001E-133</v>
       </c>
       <c r="K63">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
       <c r="C64">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="D64" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E64" t="s">
         <v>315</v>
@@ -18601,13 +18601,13 @@
         <v>503</v>
       </c>
       <c r="H64">
-        <v>47.4</v>
+        <v>47</v>
       </c>
       <c r="I64">
         <v>96.09999999999999</v>
       </c>
       <c r="J64">
-        <v>3.7E-76</v>
+        <v>2.7E-76</v>
       </c>
       <c r="K64">
         <v>231</v>
@@ -18615,16 +18615,16 @@
     </row>
     <row r="65" spans="1:11">
       <c r="A65" t="s">
-        <v>149</v>
+        <v>58</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="C65">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="D65" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="E65" t="s">
         <v>315</v>
@@ -18636,13 +18636,13 @@
         <v>503</v>
       </c>
       <c r="H65">
-        <v>47</v>
+        <v>47.4</v>
       </c>
       <c r="I65">
         <v>96.09999999999999</v>
       </c>
       <c r="J65">
-        <v>2.7E-76</v>
+        <v>3.7E-76</v>
       </c>
       <c r="K65">
         <v>231</v>
@@ -18650,16 +18650,16 @@
     </row>
     <row r="66" spans="1:11">
       <c r="A66" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="C66">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="D66" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E66" t="s">
         <v>315</v>
@@ -18671,16 +18671,16 @@
         <v>503</v>
       </c>
       <c r="H66">
-        <v>100</v>
+        <v>47.8</v>
       </c>
       <c r="I66">
-        <v>100</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>4.58E-77</v>
       </c>
       <c r="K66">
-        <v>999</v>
+        <v>233</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -18720,16 +18720,16 @@
     </row>
     <row r="68" spans="1:11">
       <c r="A68" t="s">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="B68">
         <v>0</v>
       </c>
       <c r="C68">
-        <v>771</v>
+        <v>777</v>
       </c>
       <c r="D68" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="E68" t="s">
         <v>315</v>
@@ -18741,21 +18741,21 @@
         <v>503</v>
       </c>
       <c r="H68">
-        <v>45.9</v>
+        <v>47</v>
       </c>
       <c r="I68">
-        <v>98.5</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="J68">
-        <v>4.1E-75</v>
+        <v>2.7E-76</v>
       </c>
       <c r="K68">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -18764,7 +18764,7 @@
         <v>774</v>
       </c>
       <c r="D69" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E69" t="s">
         <v>315</v>
@@ -18776,30 +18776,30 @@
         <v>503</v>
       </c>
       <c r="H69">
-        <v>46.2</v>
+        <v>47.4</v>
       </c>
       <c r="I69">
         <v>96.09999999999999</v>
       </c>
       <c r="J69">
-        <v>3.91E-73</v>
+        <v>3.7E-76</v>
       </c>
       <c r="K69">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" t="s">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
       <c r="C70">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="D70" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E70" t="s">
         <v>315</v>
@@ -18811,30 +18811,30 @@
         <v>503</v>
       </c>
       <c r="H70">
-        <v>47.8</v>
+        <v>45.9</v>
       </c>
       <c r="I70">
-        <v>96.09999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="J70">
-        <v>4.58E-77</v>
+        <v>4.1E-75</v>
       </c>
       <c r="K70">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" t="s">
-        <v>58</v>
+        <v>132</v>
       </c>
       <c r="B71">
         <v>0</v>
       </c>
       <c r="C71">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="D71" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="E71" t="s">
         <v>315</v>
@@ -18846,30 +18846,30 @@
         <v>503</v>
       </c>
       <c r="H71">
-        <v>47.4</v>
+        <v>100</v>
       </c>
       <c r="I71">
-        <v>96.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="J71">
-        <v>3.7E-76</v>
+        <v>0</v>
       </c>
       <c r="K71">
-        <v>231</v>
+        <v>999</v>
       </c>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="B72">
         <v>0</v>
       </c>
       <c r="C72">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="D72" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E72" t="s">
         <v>315</v>
@@ -18881,16 +18881,16 @@
         <v>503</v>
       </c>
       <c r="H72">
-        <v>47</v>
+        <v>46.2</v>
       </c>
       <c r="I72">
         <v>96.09999999999999</v>
       </c>
       <c r="J72">
-        <v>2.7E-76</v>
+        <v>3.91E-73</v>
       </c>
       <c r="K72">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
